--- a/37기_D반_6조_프로젝트 공정도.xlsx
+++ b/37기_D반_6조_프로젝트 공정도.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\82108\Documents\2019\프로젝트\37기_D반_Fit_c_프로젝트_산출물\02. 산출문서\05. 프로젝트 공정도\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0118A49E-A947-4EDB-A6E3-31C9EB050885}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C258817-B57A-45E1-906C-284B824F159F}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="B반 7조 상세업무스케줄표" sheetId="1" r:id="rId1"/>
+    <sheet name="D반 6조 상세업무스케줄표" sheetId="1" r:id="rId1"/>
     <sheet name="작성 참고사항" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="125725"/>
@@ -33,6 +33,8 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="MS PGothic"/>
+            <family val="2"/>
+            <charset val="128"/>
           </rPr>
           <t xml:space="preserve">9/21(목) - 9/22(금)
 테스트 및 디버깅
@@ -47,6 +49,8 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="MS PGothic"/>
+            <family val="2"/>
+            <charset val="128"/>
           </rPr>
           <t>9/25(월) - 9/28(목)
 발표 시뮬레이션
@@ -59,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="42">
   <si>
     <t>□</t>
   </si>
@@ -158,12 +162,60 @@
     <t>문성준, 이용학, 최세화</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
+  <si>
+    <t>D01</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>D02</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>M02</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>CPU DB구축</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>CASE DB구축</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>그래프 클릭</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>완료</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019.08.28</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019.09.06</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019.09.22</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019.09.23</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>■</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -243,6 +295,13 @@
       <family val="3"/>
       <charset val="129"/>
       <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="MS PGothic"/>
+      <family val="2"/>
+      <charset val="128"/>
     </font>
   </fonts>
   <fills count="9">
@@ -677,85 +736,68 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="9" fontId="4" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="4" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="4" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="4" fillId="4" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="4" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="4" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="4" fillId="4" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="9" fontId="4" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="4" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="4" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -764,7 +806,7 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="4" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -777,17 +819,34 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="4" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="4" fillId="4" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -925,6 +984,60 @@
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1FF83155-AA80-43EB-B81E-F5DF5854A20B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="7620000" cy="7620000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="AutoShape 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4FF0E0B2-5C33-4D57-8096-B65EBDF28DC8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1286,9 +1399,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AR962"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="7" topLeftCell="A128" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L4" sqref="L4:AB4"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I16" sqref="I16:I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -1307,36 +1420,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:44" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="72" t="s">
+      <c r="A1" s="79" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="61"/>
-      <c r="C1" s="61"/>
-      <c r="D1" s="61"/>
-      <c r="E1" s="61"/>
-      <c r="F1" s="61"/>
-      <c r="G1" s="61"/>
-      <c r="H1" s="61"/>
-      <c r="I1" s="61"/>
-      <c r="J1" s="61"/>
-      <c r="K1" s="61"/>
-      <c r="L1" s="61"/>
-      <c r="M1" s="61"/>
-      <c r="N1" s="61"/>
-      <c r="O1" s="61"/>
-      <c r="P1" s="61"/>
-      <c r="Q1" s="61"/>
-      <c r="R1" s="61"/>
-      <c r="S1" s="61"/>
-      <c r="T1" s="61"/>
-      <c r="U1" s="61"/>
-      <c r="V1" s="61"/>
-      <c r="W1" s="61"/>
-      <c r="X1" s="61"/>
-      <c r="Y1" s="61"/>
-      <c r="Z1" s="61"/>
-      <c r="AA1" s="61"/>
-      <c r="AB1" s="57"/>
+      <c r="B1" s="54"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="54"/>
+      <c r="E1" s="54"/>
+      <c r="F1" s="54"/>
+      <c r="G1" s="54"/>
+      <c r="H1" s="54"/>
+      <c r="I1" s="54"/>
+      <c r="J1" s="54"/>
+      <c r="K1" s="54"/>
+      <c r="L1" s="54"/>
+      <c r="M1" s="54"/>
+      <c r="N1" s="54"/>
+      <c r="O1" s="54"/>
+      <c r="P1" s="54"/>
+      <c r="Q1" s="54"/>
+      <c r="R1" s="54"/>
+      <c r="S1" s="54"/>
+      <c r="T1" s="54"/>
+      <c r="U1" s="54"/>
+      <c r="V1" s="54"/>
+      <c r="W1" s="54"/>
+      <c r="X1" s="54"/>
+      <c r="Y1" s="54"/>
+      <c r="Z1" s="54"/>
+      <c r="AA1" s="54"/>
+      <c r="AB1" s="52"/>
       <c r="AC1" s="1"/>
       <c r="AD1" s="1"/>
       <c r="AE1" s="1"/>
@@ -1355,34 +1468,34 @@
       <c r="AR1" s="2"/>
     </row>
     <row r="2" spans="1:44" ht="27.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="73"/>
-      <c r="B2" s="61"/>
-      <c r="C2" s="61"/>
-      <c r="D2" s="61"/>
-      <c r="E2" s="61"/>
-      <c r="F2" s="61"/>
-      <c r="G2" s="61"/>
-      <c r="H2" s="61"/>
-      <c r="I2" s="61"/>
-      <c r="J2" s="61"/>
-      <c r="K2" s="61"/>
-      <c r="L2" s="61"/>
-      <c r="M2" s="61"/>
-      <c r="N2" s="61"/>
-      <c r="O2" s="61"/>
-      <c r="P2" s="61"/>
-      <c r="Q2" s="61"/>
-      <c r="R2" s="61"/>
-      <c r="S2" s="61"/>
-      <c r="T2" s="61"/>
-      <c r="U2" s="61"/>
-      <c r="V2" s="61"/>
-      <c r="W2" s="61"/>
-      <c r="X2" s="61"/>
-      <c r="Y2" s="61"/>
-      <c r="Z2" s="61"/>
-      <c r="AA2" s="61"/>
-      <c r="AB2" s="57"/>
+      <c r="A2" s="80"/>
+      <c r="B2" s="54"/>
+      <c r="C2" s="54"/>
+      <c r="D2" s="54"/>
+      <c r="E2" s="54"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="54"/>
+      <c r="H2" s="54"/>
+      <c r="I2" s="54"/>
+      <c r="J2" s="54"/>
+      <c r="K2" s="54"/>
+      <c r="L2" s="54"/>
+      <c r="M2" s="54"/>
+      <c r="N2" s="54"/>
+      <c r="O2" s="54"/>
+      <c r="P2" s="54"/>
+      <c r="Q2" s="54"/>
+      <c r="R2" s="54"/>
+      <c r="S2" s="54"/>
+      <c r="T2" s="54"/>
+      <c r="U2" s="54"/>
+      <c r="V2" s="54"/>
+      <c r="W2" s="54"/>
+      <c r="X2" s="54"/>
+      <c r="Y2" s="54"/>
+      <c r="Z2" s="54"/>
+      <c r="AA2" s="54"/>
+      <c r="AB2" s="52"/>
       <c r="AC2" s="1"/>
       <c r="AD2" s="1"/>
       <c r="AE2" s="1"/>
@@ -1401,41 +1514,41 @@
       <c r="AR2" s="2"/>
     </row>
     <row r="3" spans="1:44" ht="33.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="76" t="s">
+      <c r="A3" s="69" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="75"/>
-      <c r="C3" s="75"/>
-      <c r="D3" s="75"/>
-      <c r="E3" s="75"/>
+      <c r="B3" s="70"/>
+      <c r="C3" s="70"/>
+      <c r="D3" s="70"/>
+      <c r="E3" s="70"/>
       <c r="F3" s="45"/>
-      <c r="G3" s="74" t="s">
+      <c r="G3" s="71" t="s">
         <v>7</v>
       </c>
       <c r="H3" s="45"/>
-      <c r="I3" s="74" t="s">
+      <c r="I3" s="71" t="s">
         <v>8</v>
       </c>
-      <c r="J3" s="75"/>
+      <c r="J3" s="70"/>
       <c r="K3" s="45"/>
-      <c r="L3" s="74" t="s">
+      <c r="L3" s="71" t="s">
         <v>9</v>
       </c>
-      <c r="M3" s="75"/>
-      <c r="N3" s="75"/>
-      <c r="O3" s="75"/>
-      <c r="P3" s="75"/>
-      <c r="Q3" s="75"/>
-      <c r="R3" s="75"/>
-      <c r="S3" s="75"/>
-      <c r="T3" s="75"/>
-      <c r="U3" s="75"/>
-      <c r="V3" s="75"/>
-      <c r="W3" s="75"/>
-      <c r="X3" s="75"/>
-      <c r="Y3" s="75"/>
-      <c r="Z3" s="75"/>
-      <c r="AA3" s="75"/>
+      <c r="M3" s="70"/>
+      <c r="N3" s="70"/>
+      <c r="O3" s="70"/>
+      <c r="P3" s="70"/>
+      <c r="Q3" s="70"/>
+      <c r="R3" s="70"/>
+      <c r="S3" s="70"/>
+      <c r="T3" s="70"/>
+      <c r="U3" s="70"/>
+      <c r="V3" s="70"/>
+      <c r="W3" s="70"/>
+      <c r="X3" s="70"/>
+      <c r="Y3" s="70"/>
+      <c r="Z3" s="70"/>
+      <c r="AA3" s="70"/>
       <c r="AB3" s="45"/>
       <c r="AC3" s="1"/>
       <c r="AD3" s="1"/>
@@ -1455,41 +1568,41 @@
       <c r="AR3" s="2"/>
     </row>
     <row r="4" spans="1:44" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="76" t="s">
+      <c r="A4" s="69" t="s">
         <v>28</v>
       </c>
-      <c r="B4" s="75"/>
-      <c r="C4" s="75"/>
-      <c r="D4" s="75"/>
-      <c r="E4" s="75"/>
+      <c r="B4" s="70"/>
+      <c r="C4" s="70"/>
+      <c r="D4" s="70"/>
+      <c r="E4" s="70"/>
       <c r="F4" s="45"/>
-      <c r="G4" s="74" t="s">
+      <c r="G4" s="71" t="s">
         <v>27</v>
       </c>
       <c r="H4" s="45"/>
-      <c r="I4" s="74" t="s">
+      <c r="I4" s="71" t="s">
         <v>22</v>
       </c>
-      <c r="J4" s="75"/>
+      <c r="J4" s="70"/>
       <c r="K4" s="45"/>
-      <c r="L4" s="85" t="s">
+      <c r="L4" s="78" t="s">
         <v>29</v>
       </c>
-      <c r="M4" s="75"/>
-      <c r="N4" s="75"/>
-      <c r="O4" s="75"/>
-      <c r="P4" s="75"/>
-      <c r="Q4" s="75"/>
-      <c r="R4" s="75"/>
-      <c r="S4" s="75"/>
-      <c r="T4" s="75"/>
-      <c r="U4" s="75"/>
-      <c r="V4" s="75"/>
-      <c r="W4" s="75"/>
-      <c r="X4" s="75"/>
-      <c r="Y4" s="75"/>
-      <c r="Z4" s="75"/>
-      <c r="AA4" s="75"/>
+      <c r="M4" s="70"/>
+      <c r="N4" s="70"/>
+      <c r="O4" s="70"/>
+      <c r="P4" s="70"/>
+      <c r="Q4" s="70"/>
+      <c r="R4" s="70"/>
+      <c r="S4" s="70"/>
+      <c r="T4" s="70"/>
+      <c r="U4" s="70"/>
+      <c r="V4" s="70"/>
+      <c r="W4" s="70"/>
+      <c r="X4" s="70"/>
+      <c r="Y4" s="70"/>
+      <c r="Z4" s="70"/>
+      <c r="AA4" s="70"/>
       <c r="AB4" s="45"/>
       <c r="AC4" s="1"/>
       <c r="AD4" s="1"/>
@@ -1509,25 +1622,25 @@
       <c r="AR4" s="2"/>
     </row>
     <row r="5" spans="1:44" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="82"/>
-      <c r="B5" s="83"/>
-      <c r="C5" s="83"/>
-      <c r="D5" s="83"/>
-      <c r="E5" s="83"/>
-      <c r="F5" s="83"/>
-      <c r="G5" s="83"/>
-      <c r="H5" s="83"/>
-      <c r="I5" s="83"/>
-      <c r="J5" s="83"/>
-      <c r="K5" s="83"/>
-      <c r="L5" s="83"/>
-      <c r="M5" s="83"/>
-      <c r="N5" s="83"/>
-      <c r="O5" s="83"/>
-      <c r="P5" s="83"/>
-      <c r="Q5" s="83"/>
-      <c r="R5" s="83"/>
-      <c r="S5" s="83"/>
+      <c r="A5" s="75"/>
+      <c r="B5" s="76"/>
+      <c r="C5" s="76"/>
+      <c r="D5" s="76"/>
+      <c r="E5" s="76"/>
+      <c r="F5" s="76"/>
+      <c r="G5" s="76"/>
+      <c r="H5" s="76"/>
+      <c r="I5" s="76"/>
+      <c r="J5" s="76"/>
+      <c r="K5" s="76"/>
+      <c r="L5" s="76"/>
+      <c r="M5" s="76"/>
+      <c r="N5" s="76"/>
+      <c r="O5" s="76"/>
+      <c r="P5" s="76"/>
+      <c r="Q5" s="76"/>
+      <c r="R5" s="76"/>
+      <c r="S5" s="76"/>
       <c r="T5" s="4"/>
       <c r="U5" s="4"/>
       <c r="V5" s="4"/>
@@ -1555,17 +1668,17 @@
       <c r="AR5" s="2"/>
     </row>
     <row r="6" spans="1:44" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="79" t="s">
+      <c r="A6" s="72" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="80" t="s">
+      <c r="B6" s="73" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="57"/>
-      <c r="D6" s="77" t="s">
+      <c r="C6" s="52"/>
+      <c r="D6" s="74" t="s">
         <v>12</v>
       </c>
-      <c r="E6" s="77" t="s">
+      <c r="E6" s="74" t="s">
         <v>13</v>
       </c>
       <c r="F6" s="5" t="s">
@@ -1574,55 +1687,55 @@
       <c r="G6" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="H6" s="77" t="s">
+      <c r="H6" s="74" t="s">
         <v>16</v>
       </c>
-      <c r="I6" s="77" t="s">
+      <c r="I6" s="74" t="s">
         <v>17</v>
       </c>
-      <c r="J6" s="48" t="s">
+      <c r="J6" s="87" t="s">
         <v>18</v>
       </c>
-      <c r="K6" s="49"/>
-      <c r="L6" s="49"/>
-      <c r="M6" s="50"/>
-      <c r="N6" s="84" t="s">
+      <c r="K6" s="88"/>
+      <c r="L6" s="88"/>
+      <c r="M6" s="89"/>
+      <c r="N6" s="77" t="s">
         <v>19</v>
       </c>
-      <c r="O6" s="75"/>
-      <c r="P6" s="75"/>
-      <c r="Q6" s="75"/>
-      <c r="R6" s="75"/>
-      <c r="S6" s="75"/>
-      <c r="T6" s="75"/>
-      <c r="U6" s="75"/>
-      <c r="V6" s="75"/>
-      <c r="W6" s="75"/>
-      <c r="X6" s="75"/>
-      <c r="Y6" s="75"/>
-      <c r="Z6" s="75"/>
-      <c r="AA6" s="75"/>
-      <c r="AB6" s="75"/>
-      <c r="AC6" s="75"/>
-      <c r="AD6" s="75"/>
-      <c r="AE6" s="75"/>
-      <c r="AF6" s="75"/>
-      <c r="AG6" s="75"/>
-      <c r="AH6" s="75"/>
-      <c r="AI6" s="75"/>
-      <c r="AJ6" s="75"/>
-      <c r="AK6" s="75"/>
-      <c r="AL6" s="75"/>
-      <c r="AM6" s="75"/>
-      <c r="AN6" s="75"/>
-      <c r="AO6" s="75"/>
-      <c r="AP6" s="75"/>
+      <c r="O6" s="70"/>
+      <c r="P6" s="70"/>
+      <c r="Q6" s="70"/>
+      <c r="R6" s="70"/>
+      <c r="S6" s="70"/>
+      <c r="T6" s="70"/>
+      <c r="U6" s="70"/>
+      <c r="V6" s="70"/>
+      <c r="W6" s="70"/>
+      <c r="X6" s="70"/>
+      <c r="Y6" s="70"/>
+      <c r="Z6" s="70"/>
+      <c r="AA6" s="70"/>
+      <c r="AB6" s="70"/>
+      <c r="AC6" s="70"/>
+      <c r="AD6" s="70"/>
+      <c r="AE6" s="70"/>
+      <c r="AF6" s="70"/>
+      <c r="AG6" s="70"/>
+      <c r="AH6" s="70"/>
+      <c r="AI6" s="70"/>
+      <c r="AJ6" s="70"/>
+      <c r="AK6" s="70"/>
+      <c r="AL6" s="70"/>
+      <c r="AM6" s="70"/>
+      <c r="AN6" s="70"/>
+      <c r="AO6" s="70"/>
+      <c r="AP6" s="70"/>
       <c r="AQ6" s="45"/>
       <c r="AR6" s="6"/>
     </row>
     <row r="7" spans="1:44" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="47"/>
-      <c r="B7" s="75"/>
+      <c r="A7" s="51"/>
+      <c r="B7" s="70"/>
       <c r="C7" s="45"/>
       <c r="D7" s="45"/>
       <c r="E7" s="45"/>
@@ -1739,29 +1852,61 @@
       <c r="AR7" s="6"/>
     </row>
     <row r="8" spans="1:44" ht="11.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="51">
+      <c r="A8" s="65">
         <v>1</v>
       </c>
-      <c r="B8" s="60" t="s">
+      <c r="B8" s="53" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="57"/>
-      <c r="D8" s="44"/>
-      <c r="E8" s="44"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="81"/>
-      <c r="I8" s="53"/>
-      <c r="J8" s="9"/>
-      <c r="K8" s="9"/>
-      <c r="L8" s="9"/>
-      <c r="M8" s="39"/>
-      <c r="N8" s="39"/>
-      <c r="O8" s="36"/>
-      <c r="P8" s="36"/>
-      <c r="Q8" s="10"/>
-      <c r="R8" s="10"/>
-      <c r="S8" s="10"/>
+      <c r="C8" s="52"/>
+      <c r="D8" s="44" t="s">
+        <v>30</v>
+      </c>
+      <c r="E8" s="44" t="s">
+        <v>33</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="G8" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="H8" s="59">
+        <v>1</v>
+      </c>
+      <c r="I8" s="46" t="s">
+        <v>36</v>
+      </c>
+      <c r="J8" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="K8" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="L8" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="M8" s="39" t="s">
+        <v>2</v>
+      </c>
+      <c r="N8" s="39" t="s">
+        <v>2</v>
+      </c>
+      <c r="O8" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="P8" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q8" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="R8" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="S8" s="10" t="s">
+        <v>2</v>
+      </c>
       <c r="T8" s="39"/>
       <c r="U8" s="39"/>
       <c r="V8" s="36"/>
@@ -1789,25 +1934,49 @@
       <c r="AR8" s="2"/>
     </row>
     <row r="9" spans="1:44" ht="11.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="47"/>
-      <c r="B9" s="61"/>
-      <c r="C9" s="57"/>
+      <c r="A9" s="51"/>
+      <c r="B9" s="54"/>
+      <c r="C9" s="52"/>
       <c r="D9" s="45"/>
       <c r="E9" s="45"/>
-      <c r="F9" s="12"/>
-      <c r="G9" s="12"/>
-      <c r="H9" s="47"/>
+      <c r="F9" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="G9" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="H9" s="51"/>
       <c r="I9" s="45"/>
-      <c r="J9" s="9"/>
-      <c r="K9" s="9"/>
-      <c r="L9" s="9"/>
-      <c r="M9" s="39"/>
-      <c r="N9" s="40"/>
-      <c r="O9" s="36"/>
-      <c r="P9" s="36"/>
-      <c r="Q9" s="10"/>
-      <c r="R9" s="10"/>
-      <c r="S9" s="10"/>
+      <c r="J9" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="K9" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="L9" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="M9" s="39" t="s">
+        <v>2</v>
+      </c>
+      <c r="N9" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="O9" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="P9" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q9" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="R9" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="S9" s="10" t="s">
+        <v>2</v>
+      </c>
       <c r="T9" s="39"/>
       <c r="U9" s="40"/>
       <c r="V9" s="36"/>
@@ -1835,17 +2004,29 @@
       <c r="AR9" s="2"/>
     </row>
     <row r="10" spans="1:44" ht="11.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="51">
+      <c r="A10" s="65">
         <v>2</v>
       </c>
-      <c r="B10" s="61"/>
-      <c r="C10" s="57"/>
-      <c r="D10" s="44"/>
-      <c r="E10" s="44"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="55"/>
-      <c r="I10" s="53"/>
+      <c r="B10" s="54"/>
+      <c r="C10" s="52"/>
+      <c r="D10" s="44" t="s">
+        <v>31</v>
+      </c>
+      <c r="E10" s="44" t="s">
+        <v>34</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="G10" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="H10" s="60">
+        <v>1</v>
+      </c>
+      <c r="I10" s="46" t="s">
+        <v>36</v>
+      </c>
       <c r="J10" s="11"/>
       <c r="K10" s="11"/>
       <c r="L10" s="9"/>
@@ -1883,13 +2064,17 @@
       <c r="AR10" s="2"/>
     </row>
     <row r="11" spans="1:44" ht="11.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="47"/>
-      <c r="B11" s="61"/>
-      <c r="C11" s="57"/>
+      <c r="A11" s="51"/>
+      <c r="B11" s="54"/>
+      <c r="C11" s="52"/>
       <c r="D11" s="45"/>
       <c r="E11" s="45"/>
-      <c r="F11" s="12"/>
-      <c r="G11" s="8"/>
+      <c r="F11" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="G11" s="8" t="s">
+        <v>38</v>
+      </c>
       <c r="H11" s="45"/>
       <c r="I11" s="45"/>
       <c r="J11" s="11"/>
@@ -1929,17 +2114,29 @@
       <c r="AR11" s="2"/>
     </row>
     <row r="12" spans="1:44" ht="11.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="51">
+      <c r="A12" s="65">
         <v>3</v>
       </c>
-      <c r="B12" s="61"/>
-      <c r="C12" s="57"/>
-      <c r="D12" s="44"/>
-      <c r="E12" s="44"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="55"/>
-      <c r="I12" s="53"/>
+      <c r="B12" s="54"/>
+      <c r="C12" s="52"/>
+      <c r="D12" s="44" t="s">
+        <v>32</v>
+      </c>
+      <c r="E12" s="44" t="s">
+        <v>35</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="G12" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="H12" s="60">
+        <v>1</v>
+      </c>
+      <c r="I12" s="46" t="s">
+        <v>36</v>
+      </c>
       <c r="J12" s="11"/>
       <c r="K12" s="9"/>
       <c r="L12" s="9"/>
@@ -1965,8 +2162,12 @@
       <c r="AF12" s="11"/>
       <c r="AG12" s="11"/>
       <c r="AH12" s="39"/>
-      <c r="AI12" s="39"/>
-      <c r="AJ12" s="36"/>
+      <c r="AI12" s="39" t="s">
+        <v>2</v>
+      </c>
+      <c r="AJ12" s="36" t="s">
+        <v>2</v>
+      </c>
       <c r="AK12" s="36"/>
       <c r="AL12" s="11"/>
       <c r="AM12" s="11"/>
@@ -1977,13 +2178,17 @@
       <c r="AR12" s="2"/>
     </row>
     <row r="13" spans="1:44" ht="11.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="47"/>
-      <c r="B13" s="61"/>
-      <c r="C13" s="57"/>
+      <c r="A13" s="51"/>
+      <c r="B13" s="54"/>
+      <c r="C13" s="52"/>
       <c r="D13" s="45"/>
       <c r="E13" s="45"/>
-      <c r="F13" s="12"/>
-      <c r="G13" s="8"/>
+      <c r="F13" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="G13" s="8" t="s">
+        <v>40</v>
+      </c>
       <c r="H13" s="45"/>
       <c r="I13" s="45"/>
       <c r="J13" s="11"/>
@@ -2011,8 +2216,12 @@
       <c r="AF13" s="11"/>
       <c r="AG13" s="11"/>
       <c r="AH13" s="40"/>
-      <c r="AI13" s="40"/>
-      <c r="AJ13" s="36"/>
+      <c r="AI13" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="AJ13" s="36" t="s">
+        <v>2</v>
+      </c>
       <c r="AK13" s="36"/>
       <c r="AL13" s="11"/>
       <c r="AM13" s="11"/>
@@ -2023,17 +2232,17 @@
       <c r="AR13" s="2"/>
     </row>
     <row r="14" spans="1:44" ht="12" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="51">
+      <c r="A14" s="65">
         <v>4</v>
       </c>
-      <c r="B14" s="61"/>
-      <c r="C14" s="57"/>
+      <c r="B14" s="54"/>
+      <c r="C14" s="52"/>
       <c r="D14" s="44"/>
       <c r="E14" s="44"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
-      <c r="H14" s="55"/>
-      <c r="I14" s="53"/>
+      <c r="H14" s="60"/>
+      <c r="I14" s="46"/>
       <c r="J14" s="11"/>
       <c r="K14" s="9"/>
       <c r="L14" s="9"/>
@@ -2071,9 +2280,9 @@
       <c r="AR14" s="2"/>
     </row>
     <row r="15" spans="1:44" ht="12" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="47"/>
-      <c r="B15" s="61"/>
-      <c r="C15" s="57"/>
+      <c r="A15" s="51"/>
+      <c r="B15" s="54"/>
+      <c r="C15" s="52"/>
       <c r="D15" s="45"/>
       <c r="E15" s="45"/>
       <c r="F15" s="12"/>
@@ -2117,17 +2326,17 @@
       <c r="AR15" s="2"/>
     </row>
     <row r="16" spans="1:44" ht="12" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="51">
+      <c r="A16" s="65">
         <v>5</v>
       </c>
-      <c r="B16" s="61"/>
-      <c r="C16" s="57"/>
+      <c r="B16" s="54"/>
+      <c r="C16" s="52"/>
       <c r="D16" s="44"/>
       <c r="E16" s="44"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
-      <c r="H16" s="55"/>
-      <c r="I16" s="53"/>
+      <c r="H16" s="60"/>
+      <c r="I16" s="46"/>
       <c r="J16" s="11"/>
       <c r="K16" s="11"/>
       <c r="L16" s="11"/>
@@ -2165,9 +2374,9 @@
       <c r="AR16" s="2"/>
     </row>
     <row r="17" spans="1:44" ht="12" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="47"/>
-      <c r="B17" s="61"/>
-      <c r="C17" s="57"/>
+      <c r="A17" s="51"/>
+      <c r="B17" s="54"/>
+      <c r="C17" s="52"/>
       <c r="D17" s="45"/>
       <c r="E17" s="45"/>
       <c r="F17" s="12"/>
@@ -2211,17 +2420,17 @@
       <c r="AR17" s="2"/>
     </row>
     <row r="18" spans="1:44" ht="12" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="51">
+      <c r="A18" s="65">
         <v>6</v>
       </c>
-      <c r="B18" s="61"/>
-      <c r="C18" s="57"/>
-      <c r="D18" s="86"/>
-      <c r="E18" s="86"/>
+      <c r="B18" s="54"/>
+      <c r="C18" s="52"/>
+      <c r="D18" s="64"/>
+      <c r="E18" s="64"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
-      <c r="H18" s="55"/>
-      <c r="I18" s="53"/>
+      <c r="H18" s="60"/>
+      <c r="I18" s="46"/>
       <c r="J18" s="11"/>
       <c r="K18" s="11"/>
       <c r="L18" s="11"/>
@@ -2259,9 +2468,9 @@
       <c r="AR18" s="2"/>
     </row>
     <row r="19" spans="1:44" ht="12" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="47"/>
-      <c r="B19" s="61"/>
-      <c r="C19" s="57"/>
+      <c r="A19" s="51"/>
+      <c r="B19" s="54"/>
+      <c r="C19" s="52"/>
       <c r="D19" s="45"/>
       <c r="E19" s="45"/>
       <c r="F19" s="8"/>
@@ -2305,17 +2514,17 @@
       <c r="AR19" s="2"/>
     </row>
     <row r="20" spans="1:44" ht="12" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="51">
+      <c r="A20" s="65">
         <v>7</v>
       </c>
-      <c r="B20" s="61"/>
-      <c r="C20" s="57"/>
-      <c r="D20" s="86"/>
-      <c r="E20" s="86"/>
+      <c r="B20" s="54"/>
+      <c r="C20" s="52"/>
+      <c r="D20" s="64"/>
+      <c r="E20" s="64"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
-      <c r="H20" s="55"/>
-      <c r="I20" s="53"/>
+      <c r="H20" s="60"/>
+      <c r="I20" s="46"/>
       <c r="J20" s="11"/>
       <c r="K20" s="11"/>
       <c r="L20" s="11"/>
@@ -2353,9 +2562,9 @@
       <c r="AR20" s="2"/>
     </row>
     <row r="21" spans="1:44" ht="12" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="47"/>
-      <c r="B21" s="61"/>
-      <c r="C21" s="57"/>
+      <c r="A21" s="51"/>
+      <c r="B21" s="54"/>
+      <c r="C21" s="52"/>
       <c r="D21" s="45"/>
       <c r="E21" s="45"/>
       <c r="F21" s="8"/>
@@ -2399,17 +2608,17 @@
       <c r="AR21" s="2"/>
     </row>
     <row r="22" spans="1:44" ht="12" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="51">
+      <c r="A22" s="65">
         <v>8</v>
       </c>
-      <c r="B22" s="61"/>
-      <c r="C22" s="57"/>
+      <c r="B22" s="54"/>
+      <c r="C22" s="52"/>
       <c r="D22" s="44"/>
       <c r="E22" s="44"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
-      <c r="H22" s="55"/>
-      <c r="I22" s="53"/>
+      <c r="H22" s="60"/>
+      <c r="I22" s="46"/>
       <c r="J22" s="11"/>
       <c r="K22" s="11"/>
       <c r="L22" s="11"/>
@@ -2447,9 +2656,9 @@
       <c r="AR22" s="2"/>
     </row>
     <row r="23" spans="1:44" ht="12" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="47"/>
-      <c r="B23" s="61"/>
-      <c r="C23" s="57"/>
+      <c r="A23" s="51"/>
+      <c r="B23" s="54"/>
+      <c r="C23" s="52"/>
       <c r="D23" s="45"/>
       <c r="E23" s="45"/>
       <c r="F23" s="8"/>
@@ -2493,17 +2702,17 @@
       <c r="AR23" s="2"/>
     </row>
     <row r="24" spans="1:44" ht="12" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="51">
+      <c r="A24" s="65">
         <v>9</v>
       </c>
-      <c r="B24" s="61"/>
-      <c r="C24" s="57"/>
+      <c r="B24" s="54"/>
+      <c r="C24" s="52"/>
       <c r="D24" s="44"/>
       <c r="E24" s="44"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
-      <c r="H24" s="55"/>
-      <c r="I24" s="53"/>
+      <c r="H24" s="60"/>
+      <c r="I24" s="46"/>
       <c r="J24" s="11"/>
       <c r="K24" s="11"/>
       <c r="L24" s="11"/>
@@ -2541,9 +2750,9 @@
       <c r="AR24" s="2"/>
     </row>
     <row r="25" spans="1:44" ht="12" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="47"/>
-      <c r="B25" s="61"/>
-      <c r="C25" s="57"/>
+      <c r="A25" s="51"/>
+      <c r="B25" s="54"/>
+      <c r="C25" s="52"/>
       <c r="D25" s="45"/>
       <c r="E25" s="45"/>
       <c r="F25" s="8"/>
@@ -2587,17 +2796,17 @@
       <c r="AR25" s="2"/>
     </row>
     <row r="26" spans="1:44" ht="12" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="51">
+      <c r="A26" s="65">
         <v>10</v>
       </c>
-      <c r="B26" s="61"/>
-      <c r="C26" s="57"/>
+      <c r="B26" s="54"/>
+      <c r="C26" s="52"/>
       <c r="D26" s="44"/>
       <c r="E26" s="44"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
-      <c r="H26" s="55"/>
-      <c r="I26" s="53"/>
+      <c r="H26" s="60"/>
+      <c r="I26" s="46"/>
       <c r="J26" s="11"/>
       <c r="K26" s="11"/>
       <c r="L26" s="11"/>
@@ -2635,9 +2844,9 @@
       <c r="AR26" s="2"/>
     </row>
     <row r="27" spans="1:44" ht="12" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="47"/>
-      <c r="B27" s="61"/>
-      <c r="C27" s="57"/>
+      <c r="A27" s="51"/>
+      <c r="B27" s="54"/>
+      <c r="C27" s="52"/>
       <c r="D27" s="45"/>
       <c r="E27" s="45"/>
       <c r="F27" s="8"/>
@@ -2681,17 +2890,17 @@
       <c r="AR27" s="2"/>
     </row>
     <row r="28" spans="1:44" ht="12" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="51">
+      <c r="A28" s="65">
         <v>11</v>
       </c>
-      <c r="B28" s="61"/>
-      <c r="C28" s="57"/>
+      <c r="B28" s="54"/>
+      <c r="C28" s="52"/>
       <c r="D28" s="44"/>
       <c r="E28" s="44"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
-      <c r="H28" s="55"/>
-      <c r="I28" s="53"/>
+      <c r="H28" s="60"/>
+      <c r="I28" s="46"/>
       <c r="J28" s="11"/>
       <c r="K28" s="11"/>
       <c r="L28" s="11"/>
@@ -2729,9 +2938,9 @@
       <c r="AR28" s="2"/>
     </row>
     <row r="29" spans="1:44" ht="12" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="47"/>
-      <c r="B29" s="61"/>
-      <c r="C29" s="57"/>
+      <c r="A29" s="51"/>
+      <c r="B29" s="54"/>
+      <c r="C29" s="52"/>
       <c r="D29" s="45"/>
       <c r="E29" s="45"/>
       <c r="F29" s="8"/>
@@ -2775,17 +2984,17 @@
       <c r="AR29" s="2"/>
     </row>
     <row r="30" spans="1:44" ht="12" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="51">
+      <c r="A30" s="65">
         <v>12</v>
       </c>
-      <c r="B30" s="61"/>
-      <c r="C30" s="57"/>
+      <c r="B30" s="54"/>
+      <c r="C30" s="52"/>
       <c r="D30" s="44"/>
       <c r="E30" s="44"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
-      <c r="H30" s="55"/>
-      <c r="I30" s="53"/>
+      <c r="H30" s="60"/>
+      <c r="I30" s="46"/>
       <c r="J30" s="11"/>
       <c r="K30" s="11"/>
       <c r="L30" s="11"/>
@@ -2823,9 +3032,9 @@
       <c r="AR30" s="2"/>
     </row>
     <row r="31" spans="1:44" ht="12" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="47"/>
-      <c r="B31" s="61"/>
-      <c r="C31" s="57"/>
+      <c r="A31" s="51"/>
+      <c r="B31" s="54"/>
+      <c r="C31" s="52"/>
       <c r="D31" s="45"/>
       <c r="E31" s="45"/>
       <c r="F31" s="8"/>
@@ -2869,17 +3078,17 @@
       <c r="AR31" s="2"/>
     </row>
     <row r="32" spans="1:44" ht="12" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="51">
+      <c r="A32" s="65">
         <v>13</v>
       </c>
-      <c r="B32" s="61"/>
-      <c r="C32" s="57"/>
+      <c r="B32" s="54"/>
+      <c r="C32" s="52"/>
       <c r="D32" s="44"/>
       <c r="E32" s="44"/>
       <c r="F32" s="16"/>
       <c r="G32" s="16"/>
-      <c r="H32" s="55"/>
-      <c r="I32" s="53"/>
+      <c r="H32" s="60"/>
+      <c r="I32" s="46"/>
       <c r="J32" s="11"/>
       <c r="K32" s="11"/>
       <c r="L32" s="11"/>
@@ -2917,9 +3126,9 @@
       <c r="AR32" s="2"/>
     </row>
     <row r="33" spans="1:44" ht="12" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="47"/>
-      <c r="B33" s="61"/>
-      <c r="C33" s="57"/>
+      <c r="A33" s="51"/>
+      <c r="B33" s="54"/>
+      <c r="C33" s="52"/>
       <c r="D33" s="45"/>
       <c r="E33" s="45"/>
       <c r="F33" s="16"/>
@@ -2963,17 +3172,17 @@
       <c r="AR33" s="2"/>
     </row>
     <row r="34" spans="1:44" ht="12" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="51">
+      <c r="A34" s="65">
         <v>14</v>
       </c>
-      <c r="B34" s="61"/>
-      <c r="C34" s="57"/>
+      <c r="B34" s="54"/>
+      <c r="C34" s="52"/>
       <c r="D34" s="44"/>
       <c r="E34" s="44"/>
       <c r="F34" s="16"/>
       <c r="G34" s="16"/>
-      <c r="H34" s="55"/>
-      <c r="I34" s="53"/>
+      <c r="H34" s="60"/>
+      <c r="I34" s="46"/>
       <c r="J34" s="11"/>
       <c r="K34" s="11"/>
       <c r="L34" s="11"/>
@@ -3011,9 +3220,9 @@
       <c r="AR34" s="2"/>
     </row>
     <row r="35" spans="1:44" ht="12" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="47"/>
-      <c r="B35" s="61"/>
-      <c r="C35" s="57"/>
+      <c r="A35" s="51"/>
+      <c r="B35" s="54"/>
+      <c r="C35" s="52"/>
       <c r="D35" s="45"/>
       <c r="E35" s="45"/>
       <c r="F35" s="16"/>
@@ -3057,17 +3266,17 @@
       <c r="AR35" s="2"/>
     </row>
     <row r="36" spans="1:44" ht="12" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="51">
+      <c r="A36" s="65">
         <v>15</v>
       </c>
-      <c r="B36" s="61"/>
-      <c r="C36" s="57"/>
+      <c r="B36" s="54"/>
+      <c r="C36" s="52"/>
       <c r="D36" s="44"/>
       <c r="E36" s="44"/>
       <c r="F36" s="16"/>
       <c r="G36" s="16"/>
-      <c r="H36" s="55"/>
-      <c r="I36" s="53"/>
+      <c r="H36" s="60"/>
+      <c r="I36" s="46"/>
       <c r="J36" s="11"/>
       <c r="K36" s="11"/>
       <c r="L36" s="11"/>
@@ -3105,9 +3314,9 @@
       <c r="AR36" s="2"/>
     </row>
     <row r="37" spans="1:44" ht="12" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="47"/>
-      <c r="B37" s="61"/>
-      <c r="C37" s="57"/>
+      <c r="A37" s="51"/>
+      <c r="B37" s="54"/>
+      <c r="C37" s="52"/>
       <c r="D37" s="45"/>
       <c r="E37" s="45"/>
       <c r="F37" s="16"/>
@@ -3151,17 +3360,17 @@
       <c r="AR37" s="2"/>
     </row>
     <row r="38" spans="1:44" ht="12" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="51">
+      <c r="A38" s="65">
         <v>16</v>
       </c>
-      <c r="B38" s="61"/>
-      <c r="C38" s="57"/>
+      <c r="B38" s="54"/>
+      <c r="C38" s="52"/>
       <c r="D38" s="44"/>
-      <c r="E38" s="53"/>
+      <c r="E38" s="46"/>
       <c r="F38" s="16"/>
       <c r="G38" s="16"/>
-      <c r="H38" s="55"/>
-      <c r="I38" s="53"/>
+      <c r="H38" s="60"/>
+      <c r="I38" s="46"/>
       <c r="J38" s="11"/>
       <c r="K38" s="11"/>
       <c r="L38" s="11"/>
@@ -3199,15 +3408,15 @@
       <c r="AR38" s="2"/>
     </row>
     <row r="39" spans="1:44" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A39" s="52"/>
-      <c r="B39" s="64"/>
-      <c r="C39" s="54"/>
-      <c r="D39" s="54"/>
-      <c r="E39" s="54"/>
+      <c r="A39" s="49"/>
+      <c r="B39" s="55"/>
+      <c r="C39" s="47"/>
+      <c r="D39" s="47"/>
+      <c r="E39" s="47"/>
       <c r="F39" s="18"/>
       <c r="G39" s="18"/>
-      <c r="H39" s="54"/>
-      <c r="I39" s="54"/>
+      <c r="H39" s="47"/>
+      <c r="I39" s="47"/>
       <c r="J39" s="19"/>
       <c r="K39" s="19"/>
       <c r="L39" s="19"/>
@@ -3245,19 +3454,19 @@
       <c r="AR39" s="2"/>
     </row>
     <row r="40" spans="1:44" ht="12" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="51">
+      <c r="A40" s="65">
         <v>1</v>
       </c>
-      <c r="B40" s="60" t="s">
+      <c r="B40" s="53" t="s">
         <v>23</v>
       </c>
-      <c r="C40" s="57"/>
+      <c r="C40" s="52"/>
       <c r="D40" s="44"/>
       <c r="E40" s="44"/>
       <c r="F40" s="8"/>
       <c r="G40" s="21"/>
-      <c r="H40" s="81"/>
-      <c r="I40" s="51"/>
+      <c r="H40" s="59"/>
+      <c r="I40" s="65"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c r="L40" s="9"/>
@@ -3295,15 +3504,15 @@
       <c r="AR40" s="2"/>
     </row>
     <row r="41" spans="1:44" ht="12" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="47"/>
-      <c r="B41" s="61"/>
-      <c r="C41" s="57"/>
-      <c r="D41" s="57"/>
-      <c r="E41" s="57"/>
+      <c r="A41" s="51"/>
+      <c r="B41" s="54"/>
+      <c r="C41" s="52"/>
+      <c r="D41" s="52"/>
+      <c r="E41" s="52"/>
       <c r="F41" s="8"/>
       <c r="G41" s="21"/>
-      <c r="H41" s="47"/>
-      <c r="I41" s="47"/>
+      <c r="H41" s="51"/>
+      <c r="I41" s="51"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c r="L41" s="9"/>
@@ -3341,17 +3550,17 @@
       <c r="AR41" s="2"/>
     </row>
     <row r="42" spans="1:44" ht="12" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="51">
+      <c r="A42" s="65">
         <v>2</v>
       </c>
-      <c r="B42" s="61"/>
-      <c r="C42" s="57"/>
-      <c r="D42" s="58"/>
-      <c r="E42" s="89"/>
+      <c r="B42" s="54"/>
+      <c r="C42" s="52"/>
+      <c r="D42" s="48"/>
+      <c r="E42" s="57"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
-      <c r="H42" s="81"/>
-      <c r="I42" s="51"/>
+      <c r="H42" s="59"/>
+      <c r="I42" s="65"/>
       <c r="J42" s="17"/>
       <c r="K42" s="22"/>
       <c r="L42" s="11"/>
@@ -3389,15 +3598,15 @@
       <c r="AR42" s="2"/>
     </row>
     <row r="43" spans="1:44" ht="12" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="47"/>
-      <c r="B43" s="61"/>
-      <c r="C43" s="57"/>
-      <c r="D43" s="47"/>
+      <c r="A43" s="51"/>
+      <c r="B43" s="54"/>
+      <c r="C43" s="52"/>
+      <c r="D43" s="51"/>
       <c r="E43" s="45"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
-      <c r="H43" s="47"/>
-      <c r="I43" s="47"/>
+      <c r="H43" s="51"/>
+      <c r="I43" s="51"/>
       <c r="J43" s="17"/>
       <c r="K43" s="22"/>
       <c r="L43" s="11"/>
@@ -3435,16 +3644,16 @@
       <c r="AR43" s="2"/>
     </row>
     <row r="44" spans="1:44" ht="12" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="51">
+      <c r="A44" s="65">
         <v>3</v>
       </c>
-      <c r="B44" s="61"/>
-      <c r="C44" s="57"/>
+      <c r="B44" s="54"/>
+      <c r="C44" s="52"/>
       <c r="D44" s="44"/>
-      <c r="E44" s="56"/>
+      <c r="E44" s="50"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
-      <c r="H44" s="55"/>
+      <c r="H44" s="60"/>
       <c r="I44" s="44"/>
       <c r="J44" s="11"/>
       <c r="K44" s="11"/>
@@ -3483,9 +3692,9 @@
       <c r="AR44" s="2"/>
     </row>
     <row r="45" spans="1:44" ht="12" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A45" s="47"/>
-      <c r="B45" s="61"/>
-      <c r="C45" s="57"/>
+      <c r="A45" s="51"/>
+      <c r="B45" s="54"/>
+      <c r="C45" s="52"/>
       <c r="D45" s="45"/>
       <c r="E45" s="45"/>
       <c r="F45" s="8"/>
@@ -3529,17 +3738,17 @@
       <c r="AR45" s="2"/>
     </row>
     <row r="46" spans="1:44" ht="12" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="51">
+      <c r="A46" s="65">
         <v>4</v>
       </c>
-      <c r="B46" s="61"/>
-      <c r="C46" s="57"/>
+      <c r="B46" s="54"/>
+      <c r="C46" s="52"/>
       <c r="D46" s="44"/>
-      <c r="E46" s="56"/>
+      <c r="E46" s="50"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
-      <c r="H46" s="55"/>
-      <c r="I46" s="59"/>
+      <c r="H46" s="60"/>
+      <c r="I46" s="68"/>
       <c r="J46" s="11"/>
       <c r="K46" s="11"/>
       <c r="L46" s="11"/>
@@ -3577,9 +3786,9 @@
       <c r="AR46" s="2"/>
     </row>
     <row r="47" spans="1:44" ht="12" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="47"/>
-      <c r="B47" s="61"/>
-      <c r="C47" s="57"/>
+      <c r="A47" s="51"/>
+      <c r="B47" s="54"/>
+      <c r="C47" s="52"/>
       <c r="D47" s="45"/>
       <c r="E47" s="45"/>
       <c r="F47" s="8"/>
@@ -3623,17 +3832,17 @@
       <c r="AR47" s="2"/>
     </row>
     <row r="48" spans="1:44" ht="12" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="51">
+      <c r="A48" s="65">
         <v>5</v>
       </c>
-      <c r="B48" s="61"/>
-      <c r="C48" s="57"/>
+      <c r="B48" s="54"/>
+      <c r="C48" s="52"/>
       <c r="D48" s="44"/>
       <c r="E48" s="44"/>
       <c r="F48" s="16"/>
       <c r="G48" s="16"/>
-      <c r="H48" s="55"/>
-      <c r="I48" s="59"/>
+      <c r="H48" s="60"/>
+      <c r="I48" s="68"/>
       <c r="J48" s="11"/>
       <c r="K48" s="11"/>
       <c r="L48" s="11"/>
@@ -3671,9 +3880,9 @@
       <c r="AR48" s="2"/>
     </row>
     <row r="49" spans="1:44" ht="12" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="47"/>
-      <c r="B49" s="61"/>
-      <c r="C49" s="57"/>
+      <c r="A49" s="51"/>
+      <c r="B49" s="54"/>
+      <c r="C49" s="52"/>
       <c r="D49" s="45"/>
       <c r="E49" s="45"/>
       <c r="F49" s="16"/>
@@ -3717,17 +3926,17 @@
       <c r="AR49" s="2"/>
     </row>
     <row r="50" spans="1:44" ht="12" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A50" s="51">
+      <c r="A50" s="65">
         <v>6</v>
       </c>
-      <c r="B50" s="61"/>
-      <c r="C50" s="57"/>
+      <c r="B50" s="54"/>
+      <c r="C50" s="52"/>
       <c r="D50" s="44"/>
-      <c r="E50" s="56"/>
+      <c r="E50" s="50"/>
       <c r="F50" s="16"/>
       <c r="G50" s="16"/>
-      <c r="H50" s="55"/>
-      <c r="I50" s="53"/>
+      <c r="H50" s="60"/>
+      <c r="I50" s="46"/>
       <c r="J50" s="11"/>
       <c r="K50" s="11"/>
       <c r="L50" s="11"/>
@@ -3765,9 +3974,9 @@
       <c r="AR50" s="2"/>
     </row>
     <row r="51" spans="1:44" ht="12" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A51" s="47"/>
-      <c r="B51" s="61"/>
-      <c r="C51" s="57"/>
+      <c r="A51" s="51"/>
+      <c r="B51" s="54"/>
+      <c r="C51" s="52"/>
       <c r="D51" s="45"/>
       <c r="E51" s="45"/>
       <c r="F51" s="16"/>
@@ -3811,17 +4020,17 @@
       <c r="AR51" s="2"/>
     </row>
     <row r="52" spans="1:44" ht="12" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A52" s="51">
+      <c r="A52" s="65">
         <v>7</v>
       </c>
-      <c r="B52" s="61"/>
-      <c r="C52" s="57"/>
+      <c r="B52" s="54"/>
+      <c r="C52" s="52"/>
       <c r="D52" s="44"/>
-      <c r="E52" s="56"/>
+      <c r="E52" s="50"/>
       <c r="F52" s="16"/>
       <c r="G52" s="16"/>
-      <c r="H52" s="55"/>
-      <c r="I52" s="53"/>
+      <c r="H52" s="60"/>
+      <c r="I52" s="46"/>
       <c r="J52" s="11"/>
       <c r="K52" s="11"/>
       <c r="L52" s="11"/>
@@ -3859,9 +4068,9 @@
       <c r="AR52" s="2"/>
     </row>
     <row r="53" spans="1:44" ht="12" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A53" s="47"/>
-      <c r="B53" s="61"/>
-      <c r="C53" s="57"/>
+      <c r="A53" s="51"/>
+      <c r="B53" s="54"/>
+      <c r="C53" s="52"/>
       <c r="D53" s="45"/>
       <c r="E53" s="45"/>
       <c r="F53" s="16"/>
@@ -3905,17 +4114,17 @@
       <c r="AR53" s="2"/>
     </row>
     <row r="54" spans="1:44" ht="12" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A54" s="51">
+      <c r="A54" s="65">
         <v>8</v>
       </c>
-      <c r="B54" s="61"/>
-      <c r="C54" s="57"/>
+      <c r="B54" s="54"/>
+      <c r="C54" s="52"/>
       <c r="D54" s="44"/>
-      <c r="E54" s="56"/>
+      <c r="E54" s="50"/>
       <c r="F54" s="16"/>
       <c r="G54" s="16"/>
-      <c r="H54" s="55"/>
-      <c r="I54" s="53"/>
+      <c r="H54" s="60"/>
+      <c r="I54" s="46"/>
       <c r="J54" s="11"/>
       <c r="K54" s="11"/>
       <c r="L54" s="11"/>
@@ -3953,9 +4162,9 @@
       <c r="AR54" s="2"/>
     </row>
     <row r="55" spans="1:44" ht="12" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A55" s="47"/>
-      <c r="B55" s="61"/>
-      <c r="C55" s="57"/>
+      <c r="A55" s="51"/>
+      <c r="B55" s="54"/>
+      <c r="C55" s="52"/>
       <c r="D55" s="45"/>
       <c r="E55" s="45"/>
       <c r="F55" s="16"/>
@@ -3999,17 +4208,17 @@
       <c r="AR55" s="2"/>
     </row>
     <row r="56" spans="1:44" ht="12" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A56" s="51">
+      <c r="A56" s="65">
         <v>9</v>
       </c>
-      <c r="B56" s="61"/>
-      <c r="C56" s="57"/>
+      <c r="B56" s="54"/>
+      <c r="C56" s="52"/>
       <c r="D56" s="44"/>
       <c r="E56" s="44"/>
       <c r="F56" s="16"/>
       <c r="G56" s="16"/>
-      <c r="H56" s="55"/>
-      <c r="I56" s="53"/>
+      <c r="H56" s="60"/>
+      <c r="I56" s="46"/>
       <c r="J56" s="11"/>
       <c r="K56" s="11"/>
       <c r="L56" s="11"/>
@@ -4047,9 +4256,9 @@
       <c r="AR56" s="2"/>
     </row>
     <row r="57" spans="1:44" ht="12" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A57" s="47"/>
-      <c r="B57" s="61"/>
-      <c r="C57" s="57"/>
+      <c r="A57" s="51"/>
+      <c r="B57" s="54"/>
+      <c r="C57" s="52"/>
       <c r="D57" s="45"/>
       <c r="E57" s="45"/>
       <c r="F57" s="16"/>
@@ -4093,17 +4302,17 @@
       <c r="AR57" s="2"/>
     </row>
     <row r="58" spans="1:44" ht="12" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A58" s="51">
+      <c r="A58" s="65">
         <v>10</v>
       </c>
-      <c r="B58" s="61"/>
-      <c r="C58" s="57"/>
+      <c r="B58" s="54"/>
+      <c r="C58" s="52"/>
       <c r="D58" s="44"/>
-      <c r="E58" s="56"/>
+      <c r="E58" s="50"/>
       <c r="F58" s="16"/>
       <c r="G58" s="16"/>
-      <c r="H58" s="55"/>
-      <c r="I58" s="53"/>
+      <c r="H58" s="60"/>
+      <c r="I58" s="46"/>
       <c r="J58" s="11"/>
       <c r="K58" s="11"/>
       <c r="L58" s="11"/>
@@ -4141,9 +4350,9 @@
       <c r="AR58" s="2"/>
     </row>
     <row r="59" spans="1:44" ht="12" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A59" s="47"/>
-      <c r="B59" s="61"/>
-      <c r="C59" s="57"/>
+      <c r="A59" s="51"/>
+      <c r="B59" s="54"/>
+      <c r="C59" s="52"/>
       <c r="D59" s="45"/>
       <c r="E59" s="45"/>
       <c r="F59" s="16"/>
@@ -4187,17 +4396,17 @@
       <c r="AR59" s="2"/>
     </row>
     <row r="60" spans="1:44" ht="12" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A60" s="51">
+      <c r="A60" s="65">
         <v>11</v>
       </c>
-      <c r="B60" s="61"/>
-      <c r="C60" s="57"/>
+      <c r="B60" s="54"/>
+      <c r="C60" s="52"/>
       <c r="D60" s="44"/>
-      <c r="E60" s="56"/>
+      <c r="E60" s="50"/>
       <c r="F60" s="16"/>
       <c r="G60" s="8"/>
-      <c r="H60" s="55"/>
-      <c r="I60" s="53"/>
+      <c r="H60" s="60"/>
+      <c r="I60" s="46"/>
       <c r="J60" s="11"/>
       <c r="K60" s="11"/>
       <c r="L60" s="11"/>
@@ -4235,9 +4444,9 @@
       <c r="AR60" s="2"/>
     </row>
     <row r="61" spans="1:44" ht="12" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A61" s="47"/>
-      <c r="B61" s="61"/>
-      <c r="C61" s="57"/>
+      <c r="A61" s="51"/>
+      <c r="B61" s="54"/>
+      <c r="C61" s="52"/>
       <c r="D61" s="45"/>
       <c r="E61" s="45"/>
       <c r="F61" s="16"/>
@@ -4281,17 +4490,17 @@
       <c r="AR61" s="2"/>
     </row>
     <row r="62" spans="1:44" ht="12" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A62" s="51">
+      <c r="A62" s="65">
         <v>12</v>
       </c>
-      <c r="B62" s="61"/>
-      <c r="C62" s="57"/>
+      <c r="B62" s="54"/>
+      <c r="C62" s="52"/>
       <c r="D62" s="44"/>
-      <c r="E62" s="56"/>
+      <c r="E62" s="50"/>
       <c r="F62" s="16"/>
       <c r="G62" s="8"/>
-      <c r="H62" s="55"/>
-      <c r="I62" s="53"/>
+      <c r="H62" s="60"/>
+      <c r="I62" s="46"/>
       <c r="J62" s="11"/>
       <c r="K62" s="11"/>
       <c r="L62" s="11"/>
@@ -4329,9 +4538,9 @@
       <c r="AR62" s="2"/>
     </row>
     <row r="63" spans="1:44" ht="12" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A63" s="47"/>
-      <c r="B63" s="61"/>
-      <c r="C63" s="57"/>
+      <c r="A63" s="51"/>
+      <c r="B63" s="54"/>
+      <c r="C63" s="52"/>
       <c r="D63" s="45"/>
       <c r="E63" s="45"/>
       <c r="F63" s="16"/>
@@ -4375,17 +4584,17 @@
       <c r="AR63" s="2"/>
     </row>
     <row r="64" spans="1:44" ht="12" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A64" s="51">
+      <c r="A64" s="65">
         <v>13</v>
       </c>
-      <c r="B64" s="61"/>
-      <c r="C64" s="57"/>
+      <c r="B64" s="54"/>
+      <c r="C64" s="52"/>
       <c r="D64" s="44"/>
-      <c r="E64" s="56"/>
+      <c r="E64" s="50"/>
       <c r="F64" s="16"/>
       <c r="G64" s="16"/>
-      <c r="H64" s="55"/>
-      <c r="I64" s="53"/>
+      <c r="H64" s="60"/>
+      <c r="I64" s="46"/>
       <c r="J64" s="11"/>
       <c r="K64" s="11"/>
       <c r="L64" s="11"/>
@@ -4423,9 +4632,9 @@
       <c r="AR64" s="2"/>
     </row>
     <row r="65" spans="1:44" ht="12" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A65" s="47"/>
-      <c r="B65" s="61"/>
-      <c r="C65" s="57"/>
+      <c r="A65" s="51"/>
+      <c r="B65" s="54"/>
+      <c r="C65" s="52"/>
       <c r="D65" s="45"/>
       <c r="E65" s="45"/>
       <c r="F65" s="8"/>
@@ -4469,17 +4678,17 @@
       <c r="AR65" s="2"/>
     </row>
     <row r="66" spans="1:44" ht="12" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A66" s="51">
+      <c r="A66" s="65">
         <v>14</v>
       </c>
-      <c r="B66" s="61"/>
-      <c r="C66" s="57"/>
+      <c r="B66" s="54"/>
+      <c r="C66" s="52"/>
       <c r="D66" s="44"/>
-      <c r="E66" s="56"/>
+      <c r="E66" s="50"/>
       <c r="F66" s="16"/>
       <c r="G66" s="16"/>
-      <c r="H66" s="55"/>
-      <c r="I66" s="53"/>
+      <c r="H66" s="60"/>
+      <c r="I66" s="46"/>
       <c r="J66" s="11"/>
       <c r="K66" s="11"/>
       <c r="L66" s="11"/>
@@ -4517,9 +4726,9 @@
       <c r="AR66" s="2"/>
     </row>
     <row r="67" spans="1:44" ht="12" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A67" s="47"/>
-      <c r="B67" s="61"/>
-      <c r="C67" s="57"/>
+      <c r="A67" s="51"/>
+      <c r="B67" s="54"/>
+      <c r="C67" s="52"/>
       <c r="D67" s="45"/>
       <c r="E67" s="45"/>
       <c r="F67" s="16"/>
@@ -4563,17 +4772,17 @@
       <c r="AR67" s="2"/>
     </row>
     <row r="68" spans="1:44" ht="12" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A68" s="51">
+      <c r="A68" s="65">
         <v>15</v>
       </c>
-      <c r="B68" s="61"/>
-      <c r="C68" s="57"/>
+      <c r="B68" s="54"/>
+      <c r="C68" s="52"/>
       <c r="D68" s="44"/>
-      <c r="E68" s="56"/>
+      <c r="E68" s="50"/>
       <c r="F68" s="16"/>
       <c r="G68" s="16"/>
-      <c r="H68" s="55"/>
-      <c r="I68" s="53"/>
+      <c r="H68" s="60"/>
+      <c r="I68" s="46"/>
       <c r="J68" s="11"/>
       <c r="K68" s="11"/>
       <c r="L68" s="11"/>
@@ -4611,9 +4820,9 @@
       <c r="AR68" s="2"/>
     </row>
     <row r="69" spans="1:44" ht="12" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A69" s="47"/>
-      <c r="B69" s="61"/>
-      <c r="C69" s="57"/>
+      <c r="A69" s="51"/>
+      <c r="B69" s="54"/>
+      <c r="C69" s="52"/>
       <c r="D69" s="45"/>
       <c r="E69" s="45"/>
       <c r="F69" s="16"/>
@@ -4657,17 +4866,17 @@
       <c r="AR69" s="2"/>
     </row>
     <row r="70" spans="1:44" ht="12" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A70" s="51">
+      <c r="A70" s="65">
         <v>16</v>
       </c>
-      <c r="B70" s="61"/>
-      <c r="C70" s="57"/>
+      <c r="B70" s="54"/>
+      <c r="C70" s="52"/>
       <c r="D70" s="44"/>
       <c r="E70" s="44"/>
       <c r="F70" s="16"/>
       <c r="G70" s="16"/>
-      <c r="H70" s="55"/>
-      <c r="I70" s="55"/>
+      <c r="H70" s="60"/>
+      <c r="I70" s="60"/>
       <c r="J70" s="11"/>
       <c r="K70" s="11"/>
       <c r="L70" s="11"/>
@@ -4705,9 +4914,9 @@
       <c r="AR70" s="2"/>
     </row>
     <row r="71" spans="1:44" ht="12" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A71" s="47"/>
-      <c r="B71" s="61"/>
-      <c r="C71" s="57"/>
+      <c r="A71" s="51"/>
+      <c r="B71" s="54"/>
+      <c r="C71" s="52"/>
       <c r="D71" s="45"/>
       <c r="E71" s="45"/>
       <c r="F71" s="16"/>
@@ -4751,17 +4960,17 @@
       <c r="AR71" s="2"/>
     </row>
     <row r="72" spans="1:44" ht="12" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A72" s="51">
+      <c r="A72" s="65">
         <v>17</v>
       </c>
-      <c r="B72" s="61"/>
-      <c r="C72" s="57"/>
+      <c r="B72" s="54"/>
+      <c r="C72" s="52"/>
       <c r="D72" s="44"/>
       <c r="E72" s="44"/>
       <c r="F72" s="16"/>
       <c r="G72" s="16"/>
-      <c r="H72" s="55"/>
-      <c r="I72" s="55"/>
+      <c r="H72" s="60"/>
+      <c r="I72" s="60"/>
       <c r="J72" s="11"/>
       <c r="K72" s="11"/>
       <c r="L72" s="11"/>
@@ -4799,9 +5008,9 @@
       <c r="AR72" s="2"/>
     </row>
     <row r="73" spans="1:44" ht="12" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A73" s="47"/>
-      <c r="B73" s="61"/>
-      <c r="C73" s="57"/>
+      <c r="A73" s="51"/>
+      <c r="B73" s="54"/>
+      <c r="C73" s="52"/>
       <c r="D73" s="45"/>
       <c r="E73" s="45"/>
       <c r="F73" s="23"/>
@@ -4845,17 +5054,17 @@
       <c r="AR73" s="2"/>
     </row>
     <row r="74" spans="1:44" ht="12" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A74" s="51">
+      <c r="A74" s="65">
         <v>18</v>
       </c>
-      <c r="B74" s="61"/>
-      <c r="C74" s="57"/>
+      <c r="B74" s="54"/>
+      <c r="C74" s="52"/>
       <c r="D74" s="44"/>
       <c r="E74" s="44"/>
       <c r="F74" s="16"/>
       <c r="G74" s="16"/>
-      <c r="H74" s="55"/>
-      <c r="I74" s="55"/>
+      <c r="H74" s="60"/>
+      <c r="I74" s="60"/>
       <c r="J74" s="11"/>
       <c r="K74" s="11"/>
       <c r="L74" s="11"/>
@@ -4893,11 +5102,11 @@
       <c r="AR74" s="2"/>
     </row>
     <row r="75" spans="1:44" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A75" s="47"/>
-      <c r="B75" s="61"/>
-      <c r="C75" s="57"/>
+      <c r="A75" s="51"/>
+      <c r="B75" s="54"/>
+      <c r="C75" s="52"/>
       <c r="D75" s="45"/>
-      <c r="E75" s="54"/>
+      <c r="E75" s="47"/>
       <c r="F75" s="24"/>
       <c r="G75" s="25"/>
       <c r="H75" s="45"/>
@@ -4939,19 +5148,19 @@
       <c r="AR75" s="2"/>
     </row>
     <row r="76" spans="1:44" ht="12" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A76" s="65">
+      <c r="A76" s="86">
         <v>1</v>
       </c>
-      <c r="B76" s="62" t="s">
+      <c r="B76" s="84" t="s">
         <v>24</v>
       </c>
-      <c r="C76" s="63"/>
-      <c r="D76" s="88"/>
-      <c r="E76" s="88"/>
+      <c r="C76" s="85"/>
+      <c r="D76" s="56"/>
+      <c r="E76" s="56"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
-      <c r="H76" s="66"/>
-      <c r="I76" s="66"/>
+      <c r="H76" s="67"/>
+      <c r="I76" s="67"/>
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c r="L76" s="9"/>
@@ -4989,9 +5198,9 @@
       <c r="AR76" s="2"/>
     </row>
     <row r="77" spans="1:44" ht="12" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A77" s="47"/>
-      <c r="B77" s="61"/>
-      <c r="C77" s="57"/>
+      <c r="A77" s="51"/>
+      <c r="B77" s="54"/>
+      <c r="C77" s="52"/>
       <c r="D77" s="45"/>
       <c r="E77" s="45"/>
       <c r="F77" s="8"/>
@@ -5035,17 +5244,17 @@
       <c r="AR77" s="2"/>
     </row>
     <row r="78" spans="1:44" ht="12" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A78" s="58">
+      <c r="A78" s="48">
         <v>2</v>
       </c>
-      <c r="B78" s="61"/>
-      <c r="C78" s="57"/>
+      <c r="B78" s="54"/>
+      <c r="C78" s="52"/>
       <c r="D78" s="44"/>
       <c r="E78" s="44"/>
       <c r="F78" s="8"/>
       <c r="G78" s="21"/>
-      <c r="H78" s="46"/>
-      <c r="I78" s="58"/>
+      <c r="H78" s="58"/>
+      <c r="I78" s="48"/>
       <c r="J78" s="11"/>
       <c r="K78" s="9"/>
       <c r="L78" s="11"/>
@@ -5083,15 +5292,15 @@
       <c r="AR78" s="2"/>
     </row>
     <row r="79" spans="1:44" ht="12" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A79" s="47"/>
-      <c r="B79" s="61"/>
-      <c r="C79" s="57"/>
+      <c r="A79" s="51"/>
+      <c r="B79" s="54"/>
+      <c r="C79" s="52"/>
       <c r="D79" s="45"/>
       <c r="E79" s="45"/>
       <c r="F79" s="8"/>
       <c r="G79" s="21"/>
-      <c r="H79" s="47"/>
-      <c r="I79" s="47"/>
+      <c r="H79" s="51"/>
+      <c r="I79" s="51"/>
       <c r="J79" s="11"/>
       <c r="K79" s="9"/>
       <c r="L79" s="11"/>
@@ -5129,17 +5338,17 @@
       <c r="AR79" s="2"/>
     </row>
     <row r="80" spans="1:44" ht="12" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A80" s="58">
+      <c r="A80" s="48">
         <v>3</v>
       </c>
-      <c r="B80" s="61"/>
-      <c r="C80" s="57"/>
+      <c r="B80" s="54"/>
+      <c r="C80" s="52"/>
       <c r="D80" s="44"/>
       <c r="E80" s="44"/>
       <c r="F80" s="8"/>
       <c r="G80" s="21"/>
-      <c r="H80" s="46"/>
-      <c r="I80" s="58"/>
+      <c r="H80" s="58"/>
+      <c r="I80" s="48"/>
       <c r="J80" s="11"/>
       <c r="K80" s="11"/>
       <c r="L80" s="9"/>
@@ -5177,15 +5386,15 @@
       <c r="AR80" s="2"/>
     </row>
     <row r="81" spans="1:44" ht="12" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A81" s="47"/>
-      <c r="B81" s="61"/>
-      <c r="C81" s="57"/>
+      <c r="A81" s="51"/>
+      <c r="B81" s="54"/>
+      <c r="C81" s="52"/>
       <c r="D81" s="45"/>
       <c r="E81" s="45"/>
       <c r="F81" s="8"/>
       <c r="G81" s="21"/>
-      <c r="H81" s="47"/>
-      <c r="I81" s="47"/>
+      <c r="H81" s="51"/>
+      <c r="I81" s="51"/>
       <c r="J81" s="11"/>
       <c r="K81" s="11"/>
       <c r="L81" s="9"/>
@@ -5223,17 +5432,17 @@
       <c r="AR81" s="2"/>
     </row>
     <row r="82" spans="1:44" ht="12" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A82" s="58">
+      <c r="A82" s="48">
         <v>4</v>
       </c>
-      <c r="B82" s="61"/>
-      <c r="C82" s="57"/>
+      <c r="B82" s="54"/>
+      <c r="C82" s="52"/>
       <c r="D82" s="44"/>
       <c r="E82" s="44"/>
       <c r="F82" s="8"/>
       <c r="G82" s="21"/>
-      <c r="H82" s="46"/>
-      <c r="I82" s="78"/>
+      <c r="H82" s="58"/>
+      <c r="I82" s="62"/>
       <c r="J82" s="11"/>
       <c r="K82" s="11"/>
       <c r="L82" s="11"/>
@@ -5271,15 +5480,15 @@
       <c r="AR82" s="2"/>
     </row>
     <row r="83" spans="1:44" ht="12" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A83" s="47"/>
-      <c r="B83" s="61"/>
-      <c r="C83" s="57"/>
+      <c r="A83" s="51"/>
+      <c r="B83" s="54"/>
+      <c r="C83" s="52"/>
       <c r="D83" s="45"/>
       <c r="E83" s="45"/>
       <c r="F83" s="8"/>
       <c r="G83" s="21"/>
-      <c r="H83" s="47"/>
-      <c r="I83" s="47"/>
+      <c r="H83" s="51"/>
+      <c r="I83" s="51"/>
       <c r="J83" s="11"/>
       <c r="K83" s="11"/>
       <c r="L83" s="11"/>
@@ -5317,17 +5526,17 @@
       <c r="AR83" s="2"/>
     </row>
     <row r="84" spans="1:44" ht="12" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A84" s="58">
+      <c r="A84" s="48">
         <v>5</v>
       </c>
-      <c r="B84" s="61"/>
-      <c r="C84" s="57"/>
+      <c r="B84" s="54"/>
+      <c r="C84" s="52"/>
       <c r="D84" s="44"/>
-      <c r="E84" s="58"/>
+      <c r="E84" s="48"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
-      <c r="H84" s="46"/>
-      <c r="I84" s="78"/>
+      <c r="H84" s="58"/>
+      <c r="I84" s="62"/>
       <c r="J84" s="11"/>
       <c r="K84" s="11"/>
       <c r="L84" s="11"/>
@@ -5365,15 +5574,15 @@
       <c r="AR84" s="2"/>
     </row>
     <row r="85" spans="1:44" ht="12" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A85" s="47"/>
-      <c r="B85" s="61"/>
-      <c r="C85" s="57"/>
+      <c r="A85" s="51"/>
+      <c r="B85" s="54"/>
+      <c r="C85" s="52"/>
       <c r="D85" s="45"/>
-      <c r="E85" s="47"/>
+      <c r="E85" s="51"/>
       <c r="F85" s="8"/>
       <c r="G85" s="12"/>
-      <c r="H85" s="47"/>
-      <c r="I85" s="47"/>
+      <c r="H85" s="51"/>
+      <c r="I85" s="51"/>
       <c r="J85" s="11"/>
       <c r="K85" s="11"/>
       <c r="L85" s="11"/>
@@ -5411,17 +5620,17 @@
       <c r="AR85" s="2"/>
     </row>
     <row r="86" spans="1:44" ht="12" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A86" s="58">
+      <c r="A86" s="48">
         <v>6</v>
       </c>
-      <c r="B86" s="61"/>
-      <c r="C86" s="57"/>
+      <c r="B86" s="54"/>
+      <c r="C86" s="52"/>
       <c r="D86" s="44"/>
       <c r="E86" s="44"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
-      <c r="H86" s="46"/>
-      <c r="I86" s="78"/>
+      <c r="H86" s="58"/>
+      <c r="I86" s="62"/>
       <c r="J86" s="11"/>
       <c r="K86" s="11"/>
       <c r="L86" s="11"/>
@@ -5459,15 +5668,15 @@
       <c r="AR86" s="2"/>
     </row>
     <row r="87" spans="1:44" ht="12" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A87" s="47"/>
-      <c r="B87" s="61"/>
-      <c r="C87" s="57"/>
+      <c r="A87" s="51"/>
+      <c r="B87" s="54"/>
+      <c r="C87" s="52"/>
       <c r="D87" s="45"/>
       <c r="E87" s="45"/>
       <c r="F87" s="12"/>
       <c r="G87" s="12"/>
-      <c r="H87" s="47"/>
-      <c r="I87" s="47"/>
+      <c r="H87" s="51"/>
+      <c r="I87" s="51"/>
       <c r="J87" s="11"/>
       <c r="K87" s="11"/>
       <c r="L87" s="11"/>
@@ -5505,17 +5714,17 @@
       <c r="AR87" s="2"/>
     </row>
     <row r="88" spans="1:44" ht="12" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A88" s="58">
+      <c r="A88" s="48">
         <v>7</v>
       </c>
-      <c r="B88" s="61"/>
-      <c r="C88" s="57"/>
+      <c r="B88" s="54"/>
+      <c r="C88" s="52"/>
       <c r="D88" s="44"/>
-      <c r="E88" s="53"/>
+      <c r="E88" s="46"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
-      <c r="H88" s="46"/>
-      <c r="I88" s="78"/>
+      <c r="H88" s="58"/>
+      <c r="I88" s="62"/>
       <c r="J88" s="11"/>
       <c r="K88" s="11"/>
       <c r="L88" s="11"/>
@@ -5553,15 +5762,15 @@
       <c r="AR88" s="2"/>
     </row>
     <row r="89" spans="1:44" ht="12" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A89" s="47"/>
-      <c r="B89" s="61"/>
-      <c r="C89" s="57"/>
+      <c r="A89" s="51"/>
+      <c r="B89" s="54"/>
+      <c r="C89" s="52"/>
       <c r="D89" s="45"/>
       <c r="E89" s="45"/>
       <c r="F89" s="12"/>
       <c r="G89" s="12"/>
-      <c r="H89" s="47"/>
-      <c r="I89" s="47"/>
+      <c r="H89" s="51"/>
+      <c r="I89" s="51"/>
       <c r="J89" s="11"/>
       <c r="K89" s="11"/>
       <c r="L89" s="11"/>
@@ -5599,17 +5808,17 @@
       <c r="AR89" s="2"/>
     </row>
     <row r="90" spans="1:44" ht="12" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A90" s="58">
+      <c r="A90" s="48">
         <v>8</v>
       </c>
-      <c r="B90" s="61"/>
-      <c r="C90" s="57"/>
+      <c r="B90" s="54"/>
+      <c r="C90" s="52"/>
       <c r="D90" s="44"/>
-      <c r="E90" s="53"/>
+      <c r="E90" s="46"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
-      <c r="H90" s="46"/>
-      <c r="I90" s="78"/>
+      <c r="H90" s="58"/>
+      <c r="I90" s="62"/>
       <c r="J90" s="11"/>
       <c r="K90" s="11"/>
       <c r="L90" s="11"/>
@@ -5647,15 +5856,15 @@
       <c r="AR90" s="2"/>
     </row>
     <row r="91" spans="1:44" ht="12" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A91" s="47"/>
-      <c r="B91" s="61"/>
-      <c r="C91" s="57"/>
+      <c r="A91" s="51"/>
+      <c r="B91" s="54"/>
+      <c r="C91" s="52"/>
       <c r="D91" s="45"/>
       <c r="E91" s="45"/>
       <c r="F91" s="12"/>
       <c r="G91" s="8"/>
-      <c r="H91" s="47"/>
-      <c r="I91" s="47"/>
+      <c r="H91" s="51"/>
+      <c r="I91" s="51"/>
       <c r="J91" s="11"/>
       <c r="K91" s="11"/>
       <c r="L91" s="11"/>
@@ -5693,17 +5902,17 @@
       <c r="AR91" s="2"/>
     </row>
     <row r="92" spans="1:44" ht="12" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A92" s="58">
+      <c r="A92" s="48">
         <v>9</v>
       </c>
-      <c r="B92" s="61"/>
-      <c r="C92" s="57"/>
+      <c r="B92" s="54"/>
+      <c r="C92" s="52"/>
       <c r="D92" s="44"/>
       <c r="E92" s="44"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
-      <c r="H92" s="46"/>
-      <c r="I92" s="78"/>
+      <c r="H92" s="58"/>
+      <c r="I92" s="62"/>
       <c r="J92" s="11"/>
       <c r="K92" s="11"/>
       <c r="L92" s="11"/>
@@ -5741,15 +5950,15 @@
       <c r="AR92" s="2"/>
     </row>
     <row r="93" spans="1:44" ht="12" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A93" s="47"/>
-      <c r="B93" s="61"/>
-      <c r="C93" s="57"/>
+      <c r="A93" s="51"/>
+      <c r="B93" s="54"/>
+      <c r="C93" s="52"/>
       <c r="D93" s="45"/>
       <c r="E93" s="45"/>
       <c r="F93" s="8"/>
       <c r="G93" s="12"/>
-      <c r="H93" s="47"/>
-      <c r="I93" s="47"/>
+      <c r="H93" s="51"/>
+      <c r="I93" s="51"/>
       <c r="J93" s="11"/>
       <c r="K93" s="11"/>
       <c r="L93" s="11"/>
@@ -5787,17 +5996,17 @@
       <c r="AR93" s="2"/>
     </row>
     <row r="94" spans="1:44" ht="12" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A94" s="58">
+      <c r="A94" s="48">
         <v>10</v>
       </c>
-      <c r="B94" s="61"/>
-      <c r="C94" s="57"/>
+      <c r="B94" s="54"/>
+      <c r="C94" s="52"/>
       <c r="D94" s="44"/>
       <c r="E94" s="44"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
-      <c r="H94" s="46"/>
-      <c r="I94" s="78"/>
+      <c r="H94" s="58"/>
+      <c r="I94" s="62"/>
       <c r="J94" s="11"/>
       <c r="K94" s="11"/>
       <c r="L94" s="11"/>
@@ -5835,15 +6044,15 @@
       <c r="AR94" s="2"/>
     </row>
     <row r="95" spans="1:44" ht="12" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A95" s="47"/>
-      <c r="B95" s="61"/>
-      <c r="C95" s="57"/>
+      <c r="A95" s="51"/>
+      <c r="B95" s="54"/>
+      <c r="C95" s="52"/>
       <c r="D95" s="45"/>
       <c r="E95" s="45"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
-      <c r="H95" s="47"/>
-      <c r="I95" s="47"/>
+      <c r="H95" s="51"/>
+      <c r="I95" s="51"/>
       <c r="J95" s="11"/>
       <c r="K95" s="11"/>
       <c r="L95" s="11"/>
@@ -5881,17 +6090,17 @@
       <c r="AR95" s="2"/>
     </row>
     <row r="96" spans="1:44" ht="12" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A96" s="58">
+      <c r="A96" s="48">
         <v>11</v>
       </c>
-      <c r="B96" s="61"/>
-      <c r="C96" s="57"/>
-      <c r="D96" s="58"/>
-      <c r="E96" s="70"/>
+      <c r="B96" s="54"/>
+      <c r="C96" s="52"/>
+      <c r="D96" s="48"/>
+      <c r="E96" s="66"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
-      <c r="H96" s="46"/>
-      <c r="I96" s="78"/>
+      <c r="H96" s="58"/>
+      <c r="I96" s="62"/>
       <c r="J96" s="11"/>
       <c r="K96" s="11"/>
       <c r="L96" s="11"/>
@@ -5929,15 +6138,15 @@
       <c r="AR96" s="2"/>
     </row>
     <row r="97" spans="1:44" ht="12" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A97" s="47"/>
-      <c r="B97" s="61"/>
-      <c r="C97" s="57"/>
-      <c r="D97" s="47"/>
-      <c r="E97" s="47"/>
+      <c r="A97" s="51"/>
+      <c r="B97" s="54"/>
+      <c r="C97" s="52"/>
+      <c r="D97" s="51"/>
+      <c r="E97" s="51"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
-      <c r="H97" s="47"/>
-      <c r="I97" s="47"/>
+      <c r="H97" s="51"/>
+      <c r="I97" s="51"/>
       <c r="J97" s="11"/>
       <c r="K97" s="11"/>
       <c r="L97" s="11"/>
@@ -5975,17 +6184,17 @@
       <c r="AR97" s="2"/>
     </row>
     <row r="98" spans="1:44" ht="12" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A98" s="58">
+      <c r="A98" s="48">
         <v>12</v>
       </c>
-      <c r="B98" s="61"/>
-      <c r="C98" s="57"/>
-      <c r="D98" s="58"/>
-      <c r="E98" s="56"/>
+      <c r="B98" s="54"/>
+      <c r="C98" s="52"/>
+      <c r="D98" s="48"/>
+      <c r="E98" s="50"/>
       <c r="F98" s="16"/>
       <c r="G98" s="16"/>
-      <c r="H98" s="46"/>
-      <c r="I98" s="78"/>
+      <c r="H98" s="58"/>
+      <c r="I98" s="62"/>
       <c r="J98" s="11"/>
       <c r="K98" s="11"/>
       <c r="L98" s="11"/>
@@ -6023,15 +6232,15 @@
       <c r="AR98" s="2"/>
     </row>
     <row r="99" spans="1:44" ht="12" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A99" s="47"/>
-      <c r="B99" s="61"/>
-      <c r="C99" s="57"/>
-      <c r="D99" s="47"/>
+      <c r="A99" s="51"/>
+      <c r="B99" s="54"/>
+      <c r="C99" s="52"/>
+      <c r="D99" s="51"/>
       <c r="E99" s="45"/>
       <c r="F99" s="8"/>
       <c r="G99" s="16"/>
-      <c r="H99" s="47"/>
-      <c r="I99" s="47"/>
+      <c r="H99" s="51"/>
+      <c r="I99" s="51"/>
       <c r="J99" s="11"/>
       <c r="K99" s="11"/>
       <c r="L99" s="11"/>
@@ -6069,17 +6278,17 @@
       <c r="AR99" s="2"/>
     </row>
     <row r="100" spans="1:44" ht="12" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A100" s="58">
+      <c r="A100" s="48">
         <v>13</v>
       </c>
-      <c r="B100" s="61"/>
-      <c r="C100" s="57"/>
-      <c r="D100" s="58"/>
-      <c r="E100" s="56"/>
+      <c r="B100" s="54"/>
+      <c r="C100" s="52"/>
+      <c r="D100" s="48"/>
+      <c r="E100" s="50"/>
       <c r="F100" s="16"/>
       <c r="G100" s="16"/>
-      <c r="H100" s="46"/>
-      <c r="I100" s="78"/>
+      <c r="H100" s="58"/>
+      <c r="I100" s="62"/>
       <c r="J100" s="11"/>
       <c r="K100" s="11"/>
       <c r="L100" s="11"/>
@@ -6117,15 +6326,15 @@
       <c r="AR100" s="2"/>
     </row>
     <row r="101" spans="1:44" ht="12" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A101" s="47"/>
-      <c r="B101" s="61"/>
-      <c r="C101" s="57"/>
-      <c r="D101" s="47"/>
+      <c r="A101" s="51"/>
+      <c r="B101" s="54"/>
+      <c r="C101" s="52"/>
+      <c r="D101" s="51"/>
       <c r="E101" s="45"/>
       <c r="F101" s="8"/>
       <c r="G101" s="16"/>
-      <c r="H101" s="47"/>
-      <c r="I101" s="47"/>
+      <c r="H101" s="51"/>
+      <c r="I101" s="51"/>
       <c r="J101" s="11"/>
       <c r="K101" s="11"/>
       <c r="L101" s="11"/>
@@ -6163,17 +6372,17 @@
       <c r="AR101" s="2"/>
     </row>
     <row r="102" spans="1:44" ht="12" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A102" s="58">
+      <c r="A102" s="48">
         <v>14</v>
       </c>
-      <c r="B102" s="61"/>
-      <c r="C102" s="57"/>
+      <c r="B102" s="54"/>
+      <c r="C102" s="52"/>
       <c r="D102" s="44"/>
-      <c r="E102" s="70"/>
+      <c r="E102" s="66"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
-      <c r="H102" s="46"/>
-      <c r="I102" s="78"/>
+      <c r="H102" s="58"/>
+      <c r="I102" s="62"/>
       <c r="J102" s="11"/>
       <c r="K102" s="11"/>
       <c r="L102" s="11"/>
@@ -6211,15 +6420,15 @@
       <c r="AR102" s="2"/>
     </row>
     <row r="103" spans="1:44" ht="12" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A103" s="47"/>
-      <c r="B103" s="61"/>
-      <c r="C103" s="57"/>
+      <c r="A103" s="51"/>
+      <c r="B103" s="54"/>
+      <c r="C103" s="52"/>
       <c r="D103" s="45"/>
-      <c r="E103" s="47"/>
+      <c r="E103" s="51"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
-      <c r="H103" s="47"/>
-      <c r="I103" s="47"/>
+      <c r="H103" s="51"/>
+      <c r="I103" s="51"/>
       <c r="J103" s="11"/>
       <c r="K103" s="11"/>
       <c r="L103" s="11"/>
@@ -6257,17 +6466,17 @@
       <c r="AR103" s="2"/>
     </row>
     <row r="104" spans="1:44" ht="12" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A104" s="58">
+      <c r="A104" s="48">
         <v>15</v>
       </c>
-      <c r="B104" s="61"/>
-      <c r="C104" s="57"/>
+      <c r="B104" s="54"/>
+      <c r="C104" s="52"/>
       <c r="D104" s="44"/>
-      <c r="E104" s="70"/>
+      <c r="E104" s="66"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
-      <c r="H104" s="46"/>
-      <c r="I104" s="78"/>
+      <c r="H104" s="58"/>
+      <c r="I104" s="62"/>
       <c r="J104" s="11"/>
       <c r="K104" s="11"/>
       <c r="L104" s="11"/>
@@ -6305,15 +6514,15 @@
       <c r="AR104" s="2"/>
     </row>
     <row r="105" spans="1:44" ht="12" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A105" s="47"/>
-      <c r="B105" s="61"/>
-      <c r="C105" s="57"/>
+      <c r="A105" s="51"/>
+      <c r="B105" s="54"/>
+      <c r="C105" s="52"/>
       <c r="D105" s="45"/>
-      <c r="E105" s="47"/>
+      <c r="E105" s="51"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
-      <c r="H105" s="47"/>
-      <c r="I105" s="47"/>
+      <c r="H105" s="51"/>
+      <c r="I105" s="51"/>
       <c r="J105" s="11"/>
       <c r="K105" s="11"/>
       <c r="L105" s="11"/>
@@ -6351,17 +6560,17 @@
       <c r="AR105" s="2"/>
     </row>
     <row r="106" spans="1:44" ht="12" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A106" s="58">
+      <c r="A106" s="48">
         <v>16</v>
       </c>
-      <c r="B106" s="61"/>
-      <c r="C106" s="57"/>
+      <c r="B106" s="54"/>
+      <c r="C106" s="52"/>
       <c r="D106" s="44"/>
       <c r="E106" s="44"/>
       <c r="F106" s="16"/>
       <c r="G106" s="16"/>
-      <c r="H106" s="46"/>
-      <c r="I106" s="78"/>
+      <c r="H106" s="58"/>
+      <c r="I106" s="62"/>
       <c r="J106" s="11"/>
       <c r="K106" s="11"/>
       <c r="L106" s="11"/>
@@ -6399,15 +6608,15 @@
       <c r="AR106" s="2"/>
     </row>
     <row r="107" spans="1:44" ht="12" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A107" s="47"/>
-      <c r="B107" s="61"/>
-      <c r="C107" s="57"/>
+      <c r="A107" s="51"/>
+      <c r="B107" s="54"/>
+      <c r="C107" s="52"/>
       <c r="D107" s="45"/>
       <c r="E107" s="45"/>
       <c r="F107" s="16"/>
       <c r="G107" s="16"/>
-      <c r="H107" s="47"/>
-      <c r="I107" s="47"/>
+      <c r="H107" s="51"/>
+      <c r="I107" s="51"/>
       <c r="J107" s="11"/>
       <c r="K107" s="11"/>
       <c r="L107" s="11"/>
@@ -6445,17 +6654,17 @@
       <c r="AR107" s="2"/>
     </row>
     <row r="108" spans="1:44" ht="12" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A108" s="51">
+      <c r="A108" s="65">
         <v>17</v>
       </c>
-      <c r="B108" s="61"/>
-      <c r="C108" s="57"/>
+      <c r="B108" s="54"/>
+      <c r="C108" s="52"/>
       <c r="D108" s="44"/>
       <c r="E108" s="44"/>
       <c r="F108" s="16"/>
       <c r="G108" s="16"/>
-      <c r="H108" s="46"/>
-      <c r="I108" s="68"/>
+      <c r="H108" s="58"/>
+      <c r="I108" s="63"/>
       <c r="J108" s="11"/>
       <c r="K108" s="11"/>
       <c r="L108" s="11"/>
@@ -6493,14 +6702,14 @@
       <c r="AR108" s="2"/>
     </row>
     <row r="109" spans="1:44" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A109" s="52"/>
-      <c r="B109" s="64"/>
-      <c r="C109" s="54"/>
-      <c r="D109" s="54"/>
-      <c r="E109" s="54"/>
+      <c r="A109" s="49"/>
+      <c r="B109" s="55"/>
+      <c r="C109" s="47"/>
+      <c r="D109" s="47"/>
+      <c r="E109" s="47"/>
       <c r="F109" s="27"/>
       <c r="G109" s="27"/>
-      <c r="H109" s="47"/>
+      <c r="H109" s="51"/>
       <c r="I109" s="45"/>
       <c r="J109" s="19"/>
       <c r="K109" s="19"/>
@@ -6539,19 +6748,19 @@
       <c r="AR109" s="2"/>
     </row>
     <row r="110" spans="1:44" ht="12" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A110" s="51">
+      <c r="A110" s="65">
         <v>1</v>
       </c>
-      <c r="B110" s="60" t="s">
+      <c r="B110" s="53" t="s">
         <v>25</v>
       </c>
-      <c r="C110" s="57"/>
+      <c r="C110" s="52"/>
       <c r="D110" s="44"/>
       <c r="E110" s="44"/>
       <c r="F110" s="28"/>
       <c r="G110" s="28"/>
-      <c r="H110" s="66"/>
-      <c r="I110" s="69"/>
+      <c r="H110" s="67"/>
+      <c r="I110" s="82"/>
       <c r="J110" s="9"/>
       <c r="K110" s="9"/>
       <c r="L110" s="11"/>
@@ -6589,9 +6798,9 @@
       <c r="AR110" s="2"/>
     </row>
     <row r="111" spans="1:44" ht="12" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A111" s="47"/>
-      <c r="B111" s="61"/>
-      <c r="C111" s="57"/>
+      <c r="A111" s="51"/>
+      <c r="B111" s="54"/>
+      <c r="C111" s="52"/>
       <c r="D111" s="45"/>
       <c r="E111" s="45"/>
       <c r="F111" s="16"/>
@@ -6635,16 +6844,16 @@
       <c r="AR111" s="2"/>
     </row>
     <row r="112" spans="1:44" ht="12" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A112" s="51">
+      <c r="A112" s="65">
         <v>2</v>
       </c>
-      <c r="B112" s="61"/>
-      <c r="C112" s="57"/>
+      <c r="B112" s="54"/>
+      <c r="C112" s="52"/>
       <c r="D112" s="44"/>
       <c r="E112" s="44"/>
       <c r="F112" s="16"/>
       <c r="G112" s="16"/>
-      <c r="H112" s="55"/>
+      <c r="H112" s="60"/>
       <c r="I112" s="44"/>
       <c r="J112" s="11"/>
       <c r="K112" s="11"/>
@@ -6683,9 +6892,9 @@
       <c r="AR112" s="2"/>
     </row>
     <row r="113" spans="1:44" ht="12" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A113" s="47"/>
-      <c r="B113" s="61"/>
-      <c r="C113" s="57"/>
+      <c r="A113" s="51"/>
+      <c r="B113" s="54"/>
+      <c r="C113" s="52"/>
       <c r="D113" s="45"/>
       <c r="E113" s="45"/>
       <c r="F113" s="16"/>
@@ -6729,16 +6938,16 @@
       <c r="AR113" s="2"/>
     </row>
     <row r="114" spans="1:44" ht="12" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A114" s="51">
+      <c r="A114" s="65">
         <v>3</v>
       </c>
-      <c r="B114" s="61"/>
-      <c r="C114" s="57"/>
+      <c r="B114" s="54"/>
+      <c r="C114" s="52"/>
       <c r="D114" s="44"/>
       <c r="E114" s="44"/>
       <c r="F114" s="29"/>
       <c r="G114" s="16"/>
-      <c r="H114" s="55"/>
+      <c r="H114" s="60"/>
       <c r="I114" s="44"/>
       <c r="J114" s="11"/>
       <c r="K114" s="11"/>
@@ -6777,9 +6986,9 @@
       <c r="AR114" s="2"/>
     </row>
     <row r="115" spans="1:44" ht="12" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A115" s="47"/>
-      <c r="B115" s="61"/>
-      <c r="C115" s="57"/>
+      <c r="A115" s="51"/>
+      <c r="B115" s="54"/>
+      <c r="C115" s="52"/>
       <c r="D115" s="45"/>
       <c r="E115" s="45"/>
       <c r="F115" s="29"/>
@@ -6823,17 +7032,17 @@
       <c r="AR115" s="2"/>
     </row>
     <row r="116" spans="1:44" ht="12" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A116" s="51">
+      <c r="A116" s="65">
         <v>4</v>
       </c>
-      <c r="B116" s="61"/>
-      <c r="C116" s="57"/>
+      <c r="B116" s="54"/>
+      <c r="C116" s="52"/>
       <c r="D116" s="44"/>
       <c r="E116" s="44"/>
       <c r="F116" s="29"/>
       <c r="G116" s="16"/>
-      <c r="H116" s="55"/>
-      <c r="I116" s="59"/>
+      <c r="H116" s="60"/>
+      <c r="I116" s="68"/>
       <c r="J116" s="11"/>
       <c r="K116" s="11"/>
       <c r="L116" s="11"/>
@@ -6871,9 +7080,9 @@
       <c r="AR116" s="2"/>
     </row>
     <row r="117" spans="1:44" ht="12" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A117" s="47"/>
-      <c r="B117" s="61"/>
-      <c r="C117" s="57"/>
+      <c r="A117" s="51"/>
+      <c r="B117" s="54"/>
+      <c r="C117" s="52"/>
       <c r="D117" s="45"/>
       <c r="E117" s="45"/>
       <c r="F117" s="29"/>
@@ -6917,17 +7126,17 @@
       <c r="AR117" s="2"/>
     </row>
     <row r="118" spans="1:44" ht="12" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A118" s="51">
+      <c r="A118" s="65">
         <v>5</v>
       </c>
-      <c r="B118" s="61"/>
-      <c r="C118" s="57"/>
+      <c r="B118" s="54"/>
+      <c r="C118" s="52"/>
       <c r="D118" s="44"/>
       <c r="E118" s="44"/>
       <c r="F118" s="16"/>
       <c r="G118" s="16"/>
-      <c r="H118" s="46"/>
-      <c r="I118" s="68"/>
+      <c r="H118" s="58"/>
+      <c r="I118" s="63"/>
       <c r="J118" s="11"/>
       <c r="K118" s="11"/>
       <c r="L118" s="11"/>
@@ -6965,14 +7174,14 @@
       <c r="AR118" s="2"/>
     </row>
     <row r="119" spans="1:44" ht="12" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A119" s="47"/>
-      <c r="B119" s="61"/>
-      <c r="C119" s="57"/>
+      <c r="A119" s="51"/>
+      <c r="B119" s="54"/>
+      <c r="C119" s="52"/>
       <c r="D119" s="45"/>
       <c r="E119" s="45"/>
       <c r="F119" s="16"/>
       <c r="G119" s="16"/>
-      <c r="H119" s="47"/>
+      <c r="H119" s="51"/>
       <c r="I119" s="45"/>
       <c r="J119" s="11"/>
       <c r="K119" s="11"/>
@@ -7011,17 +7220,17 @@
       <c r="AR119" s="2"/>
     </row>
     <row r="120" spans="1:44" ht="12" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A120" s="51">
+      <c r="A120" s="65">
         <v>6</v>
       </c>
-      <c r="B120" s="61"/>
-      <c r="C120" s="57"/>
+      <c r="B120" s="54"/>
+      <c r="C120" s="52"/>
       <c r="D120" s="44"/>
       <c r="E120" s="44"/>
       <c r="F120" s="16"/>
       <c r="G120" s="16"/>
-      <c r="H120" s="55"/>
-      <c r="I120" s="59"/>
+      <c r="H120" s="60"/>
+      <c r="I120" s="68"/>
       <c r="J120" s="11"/>
       <c r="K120" s="11"/>
       <c r="L120" s="11"/>
@@ -7059,9 +7268,9 @@
       <c r="AR120" s="2"/>
     </row>
     <row r="121" spans="1:44" ht="12" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A121" s="47"/>
-      <c r="B121" s="61"/>
-      <c r="C121" s="57"/>
+      <c r="A121" s="51"/>
+      <c r="B121" s="54"/>
+      <c r="C121" s="52"/>
       <c r="D121" s="45"/>
       <c r="E121" s="45"/>
       <c r="F121" s="16"/>
@@ -7105,17 +7314,17 @@
       <c r="AR121" s="2"/>
     </row>
     <row r="122" spans="1:44" ht="12" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A122" s="51">
+      <c r="A122" s="65">
         <v>7</v>
       </c>
-      <c r="B122" s="61"/>
-      <c r="C122" s="57"/>
+      <c r="B122" s="54"/>
+      <c r="C122" s="52"/>
       <c r="D122" s="44"/>
-      <c r="E122" s="53"/>
+      <c r="E122" s="46"/>
       <c r="F122" s="16"/>
       <c r="G122" s="16"/>
-      <c r="H122" s="55"/>
-      <c r="I122" s="59"/>
+      <c r="H122" s="60"/>
+      <c r="I122" s="68"/>
       <c r="J122" s="11"/>
       <c r="K122" s="11"/>
       <c r="L122" s="11"/>
@@ -7153,9 +7362,9 @@
       <c r="AR122" s="2"/>
     </row>
     <row r="123" spans="1:44" ht="12" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A123" s="47"/>
-      <c r="B123" s="61"/>
-      <c r="C123" s="57"/>
+      <c r="A123" s="51"/>
+      <c r="B123" s="54"/>
+      <c r="C123" s="52"/>
       <c r="D123" s="45"/>
       <c r="E123" s="45"/>
       <c r="F123" s="16"/>
@@ -7199,17 +7408,17 @@
       <c r="AR123" s="2"/>
     </row>
     <row r="124" spans="1:44" ht="12" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A124" s="51">
+      <c r="A124" s="65">
         <v>8</v>
       </c>
-      <c r="B124" s="61"/>
-      <c r="C124" s="57"/>
+      <c r="B124" s="54"/>
+      <c r="C124" s="52"/>
       <c r="D124" s="44"/>
       <c r="E124" s="44"/>
       <c r="F124" s="16"/>
       <c r="G124" s="16"/>
-      <c r="H124" s="55"/>
-      <c r="I124" s="59"/>
+      <c r="H124" s="60"/>
+      <c r="I124" s="68"/>
       <c r="J124" s="11"/>
       <c r="K124" s="11"/>
       <c r="L124" s="11"/>
@@ -7247,9 +7456,9 @@
       <c r="AR124" s="2"/>
     </row>
     <row r="125" spans="1:44" ht="12" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A125" s="47"/>
-      <c r="B125" s="61"/>
-      <c r="C125" s="57"/>
+      <c r="A125" s="51"/>
+      <c r="B125" s="54"/>
+      <c r="C125" s="52"/>
       <c r="D125" s="45"/>
       <c r="E125" s="45"/>
       <c r="F125" s="16"/>
@@ -7293,17 +7502,17 @@
       <c r="AR125" s="2"/>
     </row>
     <row r="126" spans="1:44" ht="12" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A126" s="51">
+      <c r="A126" s="65">
         <v>9</v>
       </c>
-      <c r="B126" s="61"/>
-      <c r="C126" s="57"/>
+      <c r="B126" s="54"/>
+      <c r="C126" s="52"/>
       <c r="D126" s="44"/>
       <c r="E126" s="44"/>
       <c r="F126" s="16"/>
       <c r="G126" s="16"/>
-      <c r="H126" s="55"/>
-      <c r="I126" s="59"/>
+      <c r="H126" s="60"/>
+      <c r="I126" s="68"/>
       <c r="J126" s="11"/>
       <c r="K126" s="11"/>
       <c r="L126" s="11"/>
@@ -7341,9 +7550,9 @@
       <c r="AR126" s="2"/>
     </row>
     <row r="127" spans="1:44" ht="12" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A127" s="47"/>
-      <c r="B127" s="61"/>
-      <c r="C127" s="57"/>
+      <c r="A127" s="51"/>
+      <c r="B127" s="54"/>
+      <c r="C127" s="52"/>
       <c r="D127" s="45"/>
       <c r="E127" s="45"/>
       <c r="F127" s="16"/>
@@ -7387,17 +7596,17 @@
       <c r="AR127" s="2"/>
     </row>
     <row r="128" spans="1:44" ht="12" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A128" s="51">
+      <c r="A128" s="65">
         <v>10</v>
       </c>
-      <c r="B128" s="61"/>
-      <c r="C128" s="57"/>
+      <c r="B128" s="54"/>
+      <c r="C128" s="52"/>
       <c r="D128" s="44"/>
       <c r="E128" s="44"/>
       <c r="F128" s="16"/>
       <c r="G128" s="16"/>
-      <c r="H128" s="46"/>
-      <c r="I128" s="68"/>
+      <c r="H128" s="58"/>
+      <c r="I128" s="63"/>
       <c r="J128" s="11"/>
       <c r="K128" s="11"/>
       <c r="L128" s="11"/>
@@ -7435,14 +7644,14 @@
       <c r="AR128" s="2"/>
     </row>
     <row r="129" spans="1:44" ht="12" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A129" s="47"/>
-      <c r="B129" s="61"/>
-      <c r="C129" s="57"/>
+      <c r="A129" s="51"/>
+      <c r="B129" s="54"/>
+      <c r="C129" s="52"/>
       <c r="D129" s="45"/>
       <c r="E129" s="45"/>
       <c r="F129" s="16"/>
       <c r="G129" s="16"/>
-      <c r="H129" s="47"/>
+      <c r="H129" s="51"/>
       <c r="I129" s="45"/>
       <c r="J129" s="11"/>
       <c r="K129" s="11"/>
@@ -7481,17 +7690,17 @@
       <c r="AR129" s="2"/>
     </row>
     <row r="130" spans="1:44" ht="12" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A130" s="51">
+      <c r="A130" s="65">
         <v>11</v>
       </c>
-      <c r="B130" s="61"/>
-      <c r="C130" s="57"/>
+      <c r="B130" s="54"/>
+      <c r="C130" s="52"/>
       <c r="D130" s="44"/>
       <c r="E130" s="44"/>
       <c r="F130" s="16"/>
       <c r="G130" s="16"/>
-      <c r="H130" s="55"/>
-      <c r="I130" s="59"/>
+      <c r="H130" s="60"/>
+      <c r="I130" s="68"/>
       <c r="J130" s="11"/>
       <c r="K130" s="11"/>
       <c r="L130" s="11"/>
@@ -7529,9 +7738,9 @@
       <c r="AR130" s="2"/>
     </row>
     <row r="131" spans="1:44" ht="12" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A131" s="47"/>
-      <c r="B131" s="61"/>
-      <c r="C131" s="57"/>
+      <c r="A131" s="51"/>
+      <c r="B131" s="54"/>
+      <c r="C131" s="52"/>
       <c r="D131" s="45"/>
       <c r="E131" s="45"/>
       <c r="F131" s="16"/>
@@ -7575,17 +7784,17 @@
       <c r="AR131" s="2"/>
     </row>
     <row r="132" spans="1:44" ht="12" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A132" s="51">
+      <c r="A132" s="65">
         <v>12</v>
       </c>
-      <c r="B132" s="61"/>
-      <c r="C132" s="57"/>
+      <c r="B132" s="54"/>
+      <c r="C132" s="52"/>
       <c r="D132" s="44"/>
       <c r="E132" s="44"/>
       <c r="F132" s="16"/>
       <c r="G132" s="16"/>
-      <c r="H132" s="55"/>
-      <c r="I132" s="59"/>
+      <c r="H132" s="60"/>
+      <c r="I132" s="68"/>
       <c r="J132" s="11"/>
       <c r="K132" s="11"/>
       <c r="L132" s="11"/>
@@ -7623,9 +7832,9 @@
       <c r="AR132" s="2"/>
     </row>
     <row r="133" spans="1:44" ht="12" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A133" s="47"/>
-      <c r="B133" s="61"/>
-      <c r="C133" s="57"/>
+      <c r="A133" s="51"/>
+      <c r="B133" s="54"/>
+      <c r="C133" s="52"/>
       <c r="D133" s="45"/>
       <c r="E133" s="45"/>
       <c r="F133" s="16"/>
@@ -7669,17 +7878,17 @@
       <c r="AR133" s="2"/>
     </row>
     <row r="134" spans="1:44" ht="12" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A134" s="51">
+      <c r="A134" s="65">
         <v>13</v>
       </c>
-      <c r="B134" s="61"/>
-      <c r="C134" s="57"/>
+      <c r="B134" s="54"/>
+      <c r="C134" s="52"/>
       <c r="D134" s="44"/>
       <c r="E134" s="44"/>
       <c r="F134" s="16"/>
       <c r="G134" s="16"/>
-      <c r="H134" s="55"/>
-      <c r="I134" s="59"/>
+      <c r="H134" s="60"/>
+      <c r="I134" s="68"/>
       <c r="J134" s="11"/>
       <c r="K134" s="11"/>
       <c r="L134" s="11"/>
@@ -7717,9 +7926,9 @@
       <c r="AR134" s="2"/>
     </row>
     <row r="135" spans="1:44" ht="12" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A135" s="47"/>
-      <c r="B135" s="61"/>
-      <c r="C135" s="57"/>
+      <c r="A135" s="51"/>
+      <c r="B135" s="54"/>
+      <c r="C135" s="52"/>
       <c r="D135" s="45"/>
       <c r="E135" s="45"/>
       <c r="F135" s="16"/>
@@ -7763,17 +7972,17 @@
       <c r="AR135" s="2"/>
     </row>
     <row r="136" spans="1:44" ht="12" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A136" s="51">
+      <c r="A136" s="65">
         <v>14</v>
       </c>
-      <c r="B136" s="61"/>
-      <c r="C136" s="57"/>
+      <c r="B136" s="54"/>
+      <c r="C136" s="52"/>
       <c r="D136" s="44"/>
       <c r="E136" s="44"/>
       <c r="F136" s="16"/>
       <c r="G136" s="16"/>
-      <c r="H136" s="67"/>
-      <c r="I136" s="87"/>
+      <c r="H136" s="81"/>
+      <c r="I136" s="61"/>
       <c r="J136" s="11"/>
       <c r="K136" s="11"/>
       <c r="L136" s="11"/>
@@ -7811,14 +8020,14 @@
       <c r="AR136" s="2"/>
     </row>
     <row r="137" spans="1:44" ht="12" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A137" s="47"/>
-      <c r="B137" s="61"/>
-      <c r="C137" s="57"/>
+      <c r="A137" s="51"/>
+      <c r="B137" s="54"/>
+      <c r="C137" s="52"/>
       <c r="D137" s="45"/>
       <c r="E137" s="45"/>
       <c r="F137" s="16"/>
       <c r="G137" s="16"/>
-      <c r="H137" s="47"/>
+      <c r="H137" s="51"/>
       <c r="I137" s="45"/>
       <c r="J137" s="11"/>
       <c r="K137" s="11"/>
@@ -7857,17 +8066,17 @@
       <c r="AR137" s="2"/>
     </row>
     <row r="138" spans="1:44" ht="12" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A138" s="51">
+      <c r="A138" s="65">
         <v>15</v>
       </c>
-      <c r="B138" s="61"/>
-      <c r="C138" s="57"/>
+      <c r="B138" s="54"/>
+      <c r="C138" s="52"/>
       <c r="D138" s="44"/>
       <c r="E138" s="44"/>
       <c r="F138" s="16"/>
       <c r="G138" s="16"/>
-      <c r="H138" s="55"/>
-      <c r="I138" s="59"/>
+      <c r="H138" s="60"/>
+      <c r="I138" s="68"/>
       <c r="J138" s="11"/>
       <c r="K138" s="11"/>
       <c r="L138" s="11"/>
@@ -7905,9 +8114,9 @@
       <c r="AR138" s="2"/>
     </row>
     <row r="139" spans="1:44" ht="12" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A139" s="47"/>
-      <c r="B139" s="61"/>
-      <c r="C139" s="57"/>
+      <c r="A139" s="51"/>
+      <c r="B139" s="54"/>
+      <c r="C139" s="52"/>
       <c r="D139" s="45"/>
       <c r="E139" s="45"/>
       <c r="F139" s="16"/>
@@ -7951,17 +8160,17 @@
       <c r="AR139" s="2"/>
     </row>
     <row r="140" spans="1:44" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A140" s="51">
+      <c r="A140" s="65">
         <v>16</v>
       </c>
-      <c r="B140" s="61"/>
-      <c r="C140" s="57"/>
+      <c r="B140" s="54"/>
+      <c r="C140" s="52"/>
       <c r="D140" s="44"/>
       <c r="E140" s="44"/>
       <c r="F140" s="16"/>
       <c r="G140" s="16"/>
-      <c r="H140" s="55"/>
-      <c r="I140" s="59"/>
+      <c r="H140" s="60"/>
+      <c r="I140" s="68"/>
       <c r="J140" s="11"/>
       <c r="K140" s="11"/>
       <c r="L140" s="11"/>
@@ -7999,9 +8208,9 @@
       <c r="AR140" s="30"/>
     </row>
     <row r="141" spans="1:44" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A141" s="47"/>
-      <c r="B141" s="61"/>
-      <c r="C141" s="57"/>
+      <c r="A141" s="51"/>
+      <c r="B141" s="54"/>
+      <c r="C141" s="52"/>
       <c r="D141" s="45"/>
       <c r="E141" s="45"/>
       <c r="F141" s="16"/>
@@ -8045,17 +8254,17 @@
       <c r="AR141" s="30"/>
     </row>
     <row r="142" spans="1:44" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A142" s="51">
+      <c r="A142" s="65">
         <v>17</v>
       </c>
-      <c r="B142" s="61"/>
-      <c r="C142" s="57"/>
+      <c r="B142" s="54"/>
+      <c r="C142" s="52"/>
       <c r="D142" s="44"/>
       <c r="E142" s="44"/>
       <c r="F142" s="16"/>
       <c r="G142" s="16"/>
-      <c r="H142" s="55"/>
-      <c r="I142" s="59"/>
+      <c r="H142" s="60"/>
+      <c r="I142" s="68"/>
       <c r="J142" s="11"/>
       <c r="K142" s="11"/>
       <c r="L142" s="11"/>
@@ -8093,9 +8302,9 @@
       <c r="AR142" s="30"/>
     </row>
     <row r="143" spans="1:44" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A143" s="47"/>
-      <c r="B143" s="61"/>
-      <c r="C143" s="57"/>
+      <c r="A143" s="51"/>
+      <c r="B143" s="54"/>
+      <c r="C143" s="52"/>
       <c r="D143" s="45"/>
       <c r="E143" s="45"/>
       <c r="F143" s="16"/>
@@ -8139,17 +8348,17 @@
       <c r="AR143" s="30"/>
     </row>
     <row r="144" spans="1:44" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A144" s="51">
+      <c r="A144" s="65">
         <v>18</v>
       </c>
-      <c r="B144" s="61"/>
-      <c r="C144" s="57"/>
+      <c r="B144" s="54"/>
+      <c r="C144" s="52"/>
       <c r="D144" s="44"/>
       <c r="E144" s="44"/>
       <c r="F144" s="16"/>
       <c r="G144" s="16"/>
-      <c r="H144" s="55"/>
-      <c r="I144" s="59"/>
+      <c r="H144" s="60"/>
+      <c r="I144" s="68"/>
       <c r="J144" s="11"/>
       <c r="K144" s="11"/>
       <c r="L144" s="11"/>
@@ -8187,9 +8396,9 @@
       <c r="AR144" s="30"/>
     </row>
     <row r="145" spans="1:44" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A145" s="47"/>
-      <c r="B145" s="61"/>
-      <c r="C145" s="57"/>
+      <c r="A145" s="51"/>
+      <c r="B145" s="54"/>
+      <c r="C145" s="52"/>
       <c r="D145" s="45"/>
       <c r="E145" s="45"/>
       <c r="F145" s="16"/>
@@ -8233,17 +8442,17 @@
       <c r="AR145" s="30"/>
     </row>
     <row r="146" spans="1:44" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A146" s="51">
+      <c r="A146" s="65">
         <v>19</v>
       </c>
-      <c r="B146" s="61"/>
-      <c r="C146" s="57"/>
+      <c r="B146" s="54"/>
+      <c r="C146" s="52"/>
       <c r="D146" s="44"/>
       <c r="E146" s="44"/>
       <c r="F146" s="16"/>
       <c r="G146" s="16"/>
-      <c r="H146" s="55"/>
-      <c r="I146" s="59"/>
+      <c r="H146" s="60"/>
+      <c r="I146" s="68"/>
       <c r="J146" s="11"/>
       <c r="K146" s="11"/>
       <c r="L146" s="11"/>
@@ -8281,9 +8490,9 @@
       <c r="AR146" s="30"/>
     </row>
     <row r="147" spans="1:44" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A147" s="47"/>
-      <c r="B147" s="61"/>
-      <c r="C147" s="57"/>
+      <c r="A147" s="51"/>
+      <c r="B147" s="54"/>
+      <c r="C147" s="52"/>
       <c r="D147" s="45"/>
       <c r="E147" s="45"/>
       <c r="F147" s="16"/>
@@ -8327,17 +8536,17 @@
       <c r="AR147" s="30"/>
     </row>
     <row r="148" spans="1:44" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A148" s="51">
+      <c r="A148" s="65">
         <v>20</v>
       </c>
-      <c r="B148" s="61"/>
-      <c r="C148" s="57"/>
-      <c r="D148" s="58"/>
-      <c r="E148" s="71"/>
+      <c r="B148" s="54"/>
+      <c r="C148" s="52"/>
+      <c r="D148" s="48"/>
+      <c r="E148" s="83"/>
       <c r="F148" s="16"/>
       <c r="G148" s="16"/>
-      <c r="H148" s="46"/>
-      <c r="I148" s="68"/>
+      <c r="H148" s="58"/>
+      <c r="I148" s="63"/>
       <c r="J148" s="11"/>
       <c r="K148" s="11"/>
       <c r="L148" s="11"/>
@@ -8375,15 +8584,15 @@
       <c r="AR148" s="30"/>
     </row>
     <row r="149" spans="1:44" ht="16.2" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A149" s="47"/>
-      <c r="B149" s="64"/>
-      <c r="C149" s="54"/>
-      <c r="D149" s="52"/>
-      <c r="E149" s="54"/>
+      <c r="A149" s="51"/>
+      <c r="B149" s="55"/>
+      <c r="C149" s="47"/>
+      <c r="D149" s="49"/>
+      <c r="E149" s="47"/>
       <c r="F149" s="18"/>
       <c r="G149" s="18"/>
-      <c r="H149" s="52"/>
-      <c r="I149" s="54"/>
+      <c r="H149" s="49"/>
+      <c r="I149" s="47"/>
       <c r="J149" s="19"/>
       <c r="K149" s="19"/>
       <c r="L149" s="19"/>
@@ -45820,93 +46029,261 @@
     </row>
   </sheetData>
   <mergeCells count="377">
-    <mergeCell ref="D138:D139"/>
-    <mergeCell ref="D140:D141"/>
-    <mergeCell ref="E120:E121"/>
-    <mergeCell ref="E122:E123"/>
-    <mergeCell ref="D108:D109"/>
-    <mergeCell ref="E112:E113"/>
-    <mergeCell ref="D148:D149"/>
-    <mergeCell ref="D146:D147"/>
-    <mergeCell ref="E142:E143"/>
-    <mergeCell ref="E124:E125"/>
-    <mergeCell ref="E126:E127"/>
-    <mergeCell ref="D126:D127"/>
-    <mergeCell ref="D124:D125"/>
-    <mergeCell ref="E100:E101"/>
-    <mergeCell ref="E108:E109"/>
-    <mergeCell ref="E110:E111"/>
-    <mergeCell ref="E114:E115"/>
-    <mergeCell ref="D96:D97"/>
-    <mergeCell ref="D94:D95"/>
-    <mergeCell ref="D52:D53"/>
-    <mergeCell ref="D102:D103"/>
-    <mergeCell ref="D104:D105"/>
-    <mergeCell ref="D110:D111"/>
-    <mergeCell ref="E58:E59"/>
-    <mergeCell ref="E92:E93"/>
-    <mergeCell ref="E88:E89"/>
-    <mergeCell ref="E90:E91"/>
-    <mergeCell ref="E70:E71"/>
-    <mergeCell ref="E74:E75"/>
-    <mergeCell ref="E72:E73"/>
-    <mergeCell ref="D144:D145"/>
-    <mergeCell ref="E40:E41"/>
-    <mergeCell ref="B110:C149"/>
-    <mergeCell ref="D128:D129"/>
-    <mergeCell ref="D130:D131"/>
-    <mergeCell ref="E76:E77"/>
-    <mergeCell ref="E78:E79"/>
-    <mergeCell ref="D80:D81"/>
-    <mergeCell ref="D74:D75"/>
-    <mergeCell ref="D76:D77"/>
-    <mergeCell ref="D78:D79"/>
-    <mergeCell ref="D72:D73"/>
-    <mergeCell ref="E138:E139"/>
-    <mergeCell ref="D132:D133"/>
-    <mergeCell ref="E132:E133"/>
-    <mergeCell ref="E136:E137"/>
-    <mergeCell ref="E134:E135"/>
-    <mergeCell ref="D134:D135"/>
-    <mergeCell ref="D136:D137"/>
-    <mergeCell ref="E44:E45"/>
-    <mergeCell ref="E42:E43"/>
-    <mergeCell ref="E46:E47"/>
-    <mergeCell ref="D106:D107"/>
-    <mergeCell ref="E48:E49"/>
-    <mergeCell ref="I44:I45"/>
-    <mergeCell ref="H92:H93"/>
-    <mergeCell ref="H88:H89"/>
-    <mergeCell ref="H90:H91"/>
-    <mergeCell ref="H40:H41"/>
-    <mergeCell ref="H42:H43"/>
-    <mergeCell ref="H44:H45"/>
-    <mergeCell ref="H56:H57"/>
-    <mergeCell ref="H50:H51"/>
-    <mergeCell ref="H48:H49"/>
-    <mergeCell ref="H46:H47"/>
-    <mergeCell ref="H52:H53"/>
-    <mergeCell ref="H54:H55"/>
-    <mergeCell ref="H62:H63"/>
-    <mergeCell ref="H60:H61"/>
-    <mergeCell ref="H58:H59"/>
-    <mergeCell ref="H64:H65"/>
-    <mergeCell ref="I136:I137"/>
-    <mergeCell ref="I56:I57"/>
-    <mergeCell ref="I58:I59"/>
-    <mergeCell ref="I60:I61"/>
-    <mergeCell ref="I54:I55"/>
-    <mergeCell ref="I52:I53"/>
-    <mergeCell ref="I50:I51"/>
-    <mergeCell ref="I62:I63"/>
-    <mergeCell ref="I64:I65"/>
-    <mergeCell ref="I96:I97"/>
-    <mergeCell ref="I94:I95"/>
-    <mergeCell ref="I78:I79"/>
-    <mergeCell ref="I82:I83"/>
-    <mergeCell ref="I80:I81"/>
-    <mergeCell ref="I104:I105"/>
-    <mergeCell ref="I106:I107"/>
+    <mergeCell ref="J6:M6"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="A38:A39"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="D36:D37"/>
+    <mergeCell ref="E36:E37"/>
+    <mergeCell ref="I38:I39"/>
+    <mergeCell ref="H38:H39"/>
+    <mergeCell ref="E38:E39"/>
+    <mergeCell ref="D38:D39"/>
+    <mergeCell ref="I40:I41"/>
+    <mergeCell ref="I42:I43"/>
+    <mergeCell ref="E34:E35"/>
+    <mergeCell ref="D34:D35"/>
+    <mergeCell ref="D40:D41"/>
+    <mergeCell ref="D44:D45"/>
+    <mergeCell ref="D42:D43"/>
+    <mergeCell ref="E50:E51"/>
+    <mergeCell ref="D50:D51"/>
+    <mergeCell ref="D48:D49"/>
+    <mergeCell ref="D46:D47"/>
+    <mergeCell ref="D56:D57"/>
+    <mergeCell ref="D54:D55"/>
+    <mergeCell ref="E52:E53"/>
+    <mergeCell ref="I22:I23"/>
+    <mergeCell ref="I18:I19"/>
+    <mergeCell ref="I16:I17"/>
+    <mergeCell ref="I14:I15"/>
+    <mergeCell ref="I20:I21"/>
+    <mergeCell ref="H68:H69"/>
+    <mergeCell ref="H66:H67"/>
+    <mergeCell ref="I122:I123"/>
+    <mergeCell ref="I120:I121"/>
+    <mergeCell ref="H116:H117"/>
+    <mergeCell ref="I116:I117"/>
+    <mergeCell ref="H120:H121"/>
+    <mergeCell ref="H72:H73"/>
+    <mergeCell ref="I28:I29"/>
+    <mergeCell ref="I34:I35"/>
+    <mergeCell ref="I30:I31"/>
+    <mergeCell ref="I32:I33"/>
+    <mergeCell ref="I24:I25"/>
+    <mergeCell ref="I36:I37"/>
+    <mergeCell ref="H26:H27"/>
+    <mergeCell ref="H24:H25"/>
+    <mergeCell ref="H30:H31"/>
+    <mergeCell ref="I26:I27"/>
+    <mergeCell ref="H104:H105"/>
+    <mergeCell ref="H28:H29"/>
+    <mergeCell ref="H32:H33"/>
+    <mergeCell ref="I10:I11"/>
+    <mergeCell ref="I12:I13"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="H12:H13"/>
+    <mergeCell ref="A134:A135"/>
+    <mergeCell ref="A138:A139"/>
+    <mergeCell ref="A136:A137"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="H10:H11"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="H114:H115"/>
+    <mergeCell ref="H110:H111"/>
+    <mergeCell ref="H112:H113"/>
+    <mergeCell ref="H98:H99"/>
+    <mergeCell ref="H100:H101"/>
+    <mergeCell ref="H84:H85"/>
+    <mergeCell ref="H86:H87"/>
+    <mergeCell ref="H94:H95"/>
+    <mergeCell ref="H96:H97"/>
+    <mergeCell ref="H102:H103"/>
+    <mergeCell ref="H22:H23"/>
+    <mergeCell ref="H20:H21"/>
+    <mergeCell ref="A146:A147"/>
+    <mergeCell ref="A148:A149"/>
+    <mergeCell ref="A144:A145"/>
+    <mergeCell ref="A62:A63"/>
+    <mergeCell ref="A60:A61"/>
+    <mergeCell ref="A48:A49"/>
+    <mergeCell ref="A50:A51"/>
+    <mergeCell ref="B40:C75"/>
+    <mergeCell ref="B76:C109"/>
+    <mergeCell ref="A90:A91"/>
+    <mergeCell ref="A92:A93"/>
+    <mergeCell ref="A132:A133"/>
+    <mergeCell ref="A72:A73"/>
+    <mergeCell ref="A54:A55"/>
+    <mergeCell ref="A52:A53"/>
+    <mergeCell ref="A58:A59"/>
+    <mergeCell ref="A76:A77"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="A44:A45"/>
+    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="H16:H17"/>
+    <mergeCell ref="H18:H19"/>
+    <mergeCell ref="H70:H71"/>
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="D60:D61"/>
+    <mergeCell ref="D58:D59"/>
+    <mergeCell ref="E60:E61"/>
+    <mergeCell ref="A130:A131"/>
+    <mergeCell ref="E130:E131"/>
+    <mergeCell ref="E116:E117"/>
+    <mergeCell ref="E118:E119"/>
+    <mergeCell ref="D116:D117"/>
+    <mergeCell ref="D118:D119"/>
+    <mergeCell ref="D120:D121"/>
+    <mergeCell ref="A112:A113"/>
+    <mergeCell ref="A94:A95"/>
+    <mergeCell ref="E94:E95"/>
+    <mergeCell ref="A124:A125"/>
+    <mergeCell ref="A126:A127"/>
+    <mergeCell ref="E106:E107"/>
+    <mergeCell ref="A98:A99"/>
+    <mergeCell ref="A110:A111"/>
+    <mergeCell ref="A108:A109"/>
+    <mergeCell ref="I146:I147"/>
+    <mergeCell ref="H134:H135"/>
+    <mergeCell ref="H136:H137"/>
+    <mergeCell ref="H146:H147"/>
+    <mergeCell ref="H148:H149"/>
+    <mergeCell ref="I148:I149"/>
+    <mergeCell ref="I110:I111"/>
+    <mergeCell ref="I124:I125"/>
+    <mergeCell ref="I126:I127"/>
+    <mergeCell ref="H144:H145"/>
+    <mergeCell ref="H138:H139"/>
+    <mergeCell ref="I138:I139"/>
+    <mergeCell ref="H140:H141"/>
+    <mergeCell ref="I140:I141"/>
+    <mergeCell ref="H126:H127"/>
+    <mergeCell ref="I144:I145"/>
+    <mergeCell ref="I130:I131"/>
+    <mergeCell ref="H130:H131"/>
+    <mergeCell ref="I134:I135"/>
+    <mergeCell ref="H132:H133"/>
+    <mergeCell ref="I132:I133"/>
+    <mergeCell ref="H142:H143"/>
+    <mergeCell ref="I142:I143"/>
+    <mergeCell ref="H122:H123"/>
+    <mergeCell ref="H124:H125"/>
+    <mergeCell ref="A142:A143"/>
+    <mergeCell ref="A140:A141"/>
+    <mergeCell ref="E96:E97"/>
+    <mergeCell ref="D114:D115"/>
+    <mergeCell ref="D112:D113"/>
+    <mergeCell ref="D100:D101"/>
+    <mergeCell ref="D98:D99"/>
+    <mergeCell ref="E140:E141"/>
+    <mergeCell ref="I114:I115"/>
+    <mergeCell ref="I112:I113"/>
+    <mergeCell ref="A128:A129"/>
+    <mergeCell ref="E128:E129"/>
+    <mergeCell ref="H128:H129"/>
+    <mergeCell ref="I128:I129"/>
+    <mergeCell ref="A96:A97"/>
+    <mergeCell ref="D142:D143"/>
+    <mergeCell ref="D122:D123"/>
+    <mergeCell ref="H106:H107"/>
+    <mergeCell ref="A1:AB2"/>
+    <mergeCell ref="L3:AB3"/>
+    <mergeCell ref="A118:A119"/>
+    <mergeCell ref="A120:A121"/>
+    <mergeCell ref="A122:A123"/>
+    <mergeCell ref="A114:A115"/>
+    <mergeCell ref="A116:A117"/>
+    <mergeCell ref="A106:A107"/>
+    <mergeCell ref="A104:A105"/>
+    <mergeCell ref="A100:A101"/>
+    <mergeCell ref="A102:A103"/>
+    <mergeCell ref="A68:A69"/>
+    <mergeCell ref="A70:A71"/>
+    <mergeCell ref="A64:A65"/>
+    <mergeCell ref="A66:A67"/>
+    <mergeCell ref="A56:A57"/>
+    <mergeCell ref="A46:A47"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="I92:I93"/>
+    <mergeCell ref="A4:F4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:C7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="I4:K4"/>
+    <mergeCell ref="I3:K3"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="A5:S5"/>
+    <mergeCell ref="N6:AQ6"/>
+    <mergeCell ref="I8:I9"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="L4:AB4"/>
+    <mergeCell ref="B8:C39"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="E104:E105"/>
+    <mergeCell ref="E102:E103"/>
+    <mergeCell ref="I68:I69"/>
+    <mergeCell ref="I66:I67"/>
+    <mergeCell ref="H118:H119"/>
+    <mergeCell ref="I118:I119"/>
+    <mergeCell ref="D84:D85"/>
+    <mergeCell ref="D90:D91"/>
+    <mergeCell ref="D82:D83"/>
+    <mergeCell ref="E98:E99"/>
+    <mergeCell ref="H34:H35"/>
+    <mergeCell ref="H36:H37"/>
+    <mergeCell ref="H76:H77"/>
+    <mergeCell ref="H74:H75"/>
+    <mergeCell ref="H82:H83"/>
+    <mergeCell ref="H78:H79"/>
+    <mergeCell ref="H80:H81"/>
+    <mergeCell ref="I98:I99"/>
+    <mergeCell ref="I100:I101"/>
+    <mergeCell ref="I46:I47"/>
+    <mergeCell ref="I48:I49"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="E82:E83"/>
+    <mergeCell ref="E84:E85"/>
+    <mergeCell ref="E80:E81"/>
+    <mergeCell ref="E66:E67"/>
+    <mergeCell ref="A74:A75"/>
+    <mergeCell ref="A88:A89"/>
+    <mergeCell ref="A84:A85"/>
+    <mergeCell ref="A86:A87"/>
+    <mergeCell ref="A80:A81"/>
+    <mergeCell ref="A78:A79"/>
+    <mergeCell ref="A82:A83"/>
+    <mergeCell ref="E54:E55"/>
+    <mergeCell ref="E56:E57"/>
+    <mergeCell ref="E62:E63"/>
+    <mergeCell ref="E64:E65"/>
+    <mergeCell ref="D86:D87"/>
+    <mergeCell ref="D88:D89"/>
+    <mergeCell ref="D70:D71"/>
+    <mergeCell ref="D64:D65"/>
+    <mergeCell ref="E86:E87"/>
+    <mergeCell ref="D62:D63"/>
+    <mergeCell ref="E32:E33"/>
+    <mergeCell ref="D32:D33"/>
     <mergeCell ref="H108:H109"/>
     <mergeCell ref="I108:I109"/>
     <mergeCell ref="I102:I103"/>
@@ -45931,272 +46308,104 @@
     <mergeCell ref="E26:E27"/>
     <mergeCell ref="E28:E29"/>
     <mergeCell ref="E24:E25"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="E82:E83"/>
-    <mergeCell ref="E84:E85"/>
-    <mergeCell ref="E80:E81"/>
-    <mergeCell ref="E66:E67"/>
-    <mergeCell ref="A74:A75"/>
-    <mergeCell ref="A88:A89"/>
-    <mergeCell ref="A84:A85"/>
-    <mergeCell ref="A86:A87"/>
-    <mergeCell ref="A80:A81"/>
-    <mergeCell ref="A78:A79"/>
-    <mergeCell ref="A82:A83"/>
-    <mergeCell ref="E54:E55"/>
-    <mergeCell ref="E56:E57"/>
-    <mergeCell ref="E62:E63"/>
-    <mergeCell ref="E64:E65"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="E104:E105"/>
-    <mergeCell ref="E102:E103"/>
-    <mergeCell ref="I68:I69"/>
-    <mergeCell ref="I66:I67"/>
-    <mergeCell ref="H118:H119"/>
-    <mergeCell ref="I118:I119"/>
-    <mergeCell ref="D84:D85"/>
-    <mergeCell ref="D90:D91"/>
-    <mergeCell ref="D82:D83"/>
-    <mergeCell ref="E98:E99"/>
-    <mergeCell ref="H34:H35"/>
-    <mergeCell ref="H36:H37"/>
-    <mergeCell ref="H76:H77"/>
-    <mergeCell ref="H74:H75"/>
-    <mergeCell ref="H82:H83"/>
-    <mergeCell ref="H78:H79"/>
-    <mergeCell ref="H80:H81"/>
-    <mergeCell ref="I98:I99"/>
-    <mergeCell ref="I100:I101"/>
-    <mergeCell ref="I46:I47"/>
-    <mergeCell ref="I48:I49"/>
-    <mergeCell ref="A4:F4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="B6:C7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="I4:K4"/>
-    <mergeCell ref="I3:K3"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="A5:S5"/>
-    <mergeCell ref="N6:AQ6"/>
-    <mergeCell ref="I8:I9"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="L4:AB4"/>
-    <mergeCell ref="B8:C39"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="A1:AB2"/>
-    <mergeCell ref="L3:AB3"/>
-    <mergeCell ref="A118:A119"/>
-    <mergeCell ref="A120:A121"/>
-    <mergeCell ref="A122:A123"/>
-    <mergeCell ref="A114:A115"/>
-    <mergeCell ref="A116:A117"/>
-    <mergeCell ref="A106:A107"/>
-    <mergeCell ref="A104:A105"/>
-    <mergeCell ref="A100:A101"/>
-    <mergeCell ref="A102:A103"/>
-    <mergeCell ref="A68:A69"/>
-    <mergeCell ref="A70:A71"/>
-    <mergeCell ref="A64:A65"/>
-    <mergeCell ref="A66:A67"/>
-    <mergeCell ref="A56:A57"/>
-    <mergeCell ref="A46:A47"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="I92:I93"/>
+    <mergeCell ref="I136:I137"/>
+    <mergeCell ref="I56:I57"/>
+    <mergeCell ref="I58:I59"/>
+    <mergeCell ref="I60:I61"/>
+    <mergeCell ref="I54:I55"/>
+    <mergeCell ref="I52:I53"/>
+    <mergeCell ref="I50:I51"/>
+    <mergeCell ref="I62:I63"/>
+    <mergeCell ref="I64:I65"/>
+    <mergeCell ref="I96:I97"/>
+    <mergeCell ref="I94:I95"/>
+    <mergeCell ref="I78:I79"/>
+    <mergeCell ref="I82:I83"/>
+    <mergeCell ref="I80:I81"/>
+    <mergeCell ref="I104:I105"/>
+    <mergeCell ref="I106:I107"/>
     <mergeCell ref="I72:I73"/>
     <mergeCell ref="I74:I75"/>
     <mergeCell ref="I76:I77"/>
-    <mergeCell ref="H142:H143"/>
-    <mergeCell ref="I142:I143"/>
-    <mergeCell ref="H122:H123"/>
-    <mergeCell ref="H124:H125"/>
-    <mergeCell ref="A142:A143"/>
-    <mergeCell ref="A140:A141"/>
-    <mergeCell ref="E96:E97"/>
-    <mergeCell ref="D114:D115"/>
-    <mergeCell ref="D112:D113"/>
-    <mergeCell ref="D100:D101"/>
-    <mergeCell ref="D98:D99"/>
-    <mergeCell ref="E140:E141"/>
-    <mergeCell ref="I114:I115"/>
-    <mergeCell ref="I112:I113"/>
-    <mergeCell ref="A128:A129"/>
-    <mergeCell ref="E128:E129"/>
-    <mergeCell ref="D86:D87"/>
-    <mergeCell ref="D88:D89"/>
-    <mergeCell ref="H128:H129"/>
-    <mergeCell ref="I128:I129"/>
-    <mergeCell ref="A96:A97"/>
-    <mergeCell ref="D142:D143"/>
-    <mergeCell ref="I146:I147"/>
-    <mergeCell ref="H134:H135"/>
-    <mergeCell ref="H136:H137"/>
-    <mergeCell ref="H146:H147"/>
-    <mergeCell ref="H148:H149"/>
-    <mergeCell ref="I148:I149"/>
-    <mergeCell ref="I110:I111"/>
-    <mergeCell ref="I124:I125"/>
-    <mergeCell ref="I126:I127"/>
-    <mergeCell ref="H144:H145"/>
-    <mergeCell ref="H138:H139"/>
-    <mergeCell ref="I138:I139"/>
-    <mergeCell ref="H140:H141"/>
-    <mergeCell ref="I140:I141"/>
-    <mergeCell ref="H126:H127"/>
-    <mergeCell ref="I144:I145"/>
+    <mergeCell ref="I70:I71"/>
+    <mergeCell ref="I44:I45"/>
+    <mergeCell ref="H92:H93"/>
+    <mergeCell ref="H88:H89"/>
+    <mergeCell ref="H90:H91"/>
+    <mergeCell ref="H40:H41"/>
+    <mergeCell ref="H42:H43"/>
+    <mergeCell ref="H44:H45"/>
+    <mergeCell ref="H56:H57"/>
+    <mergeCell ref="H50:H51"/>
+    <mergeCell ref="H48:H49"/>
+    <mergeCell ref="H46:H47"/>
+    <mergeCell ref="H52:H53"/>
+    <mergeCell ref="H54:H55"/>
+    <mergeCell ref="H62:H63"/>
+    <mergeCell ref="H60:H61"/>
+    <mergeCell ref="H58:H59"/>
+    <mergeCell ref="H64:H65"/>
+    <mergeCell ref="E40:E41"/>
+    <mergeCell ref="B110:C149"/>
+    <mergeCell ref="D128:D129"/>
+    <mergeCell ref="D130:D131"/>
+    <mergeCell ref="E76:E77"/>
+    <mergeCell ref="E78:E79"/>
+    <mergeCell ref="D80:D81"/>
+    <mergeCell ref="D74:D75"/>
+    <mergeCell ref="D76:D77"/>
+    <mergeCell ref="D78:D79"/>
+    <mergeCell ref="D72:D73"/>
+    <mergeCell ref="E138:E139"/>
+    <mergeCell ref="D132:D133"/>
+    <mergeCell ref="E132:E133"/>
+    <mergeCell ref="E136:E137"/>
+    <mergeCell ref="E134:E135"/>
+    <mergeCell ref="D134:D135"/>
+    <mergeCell ref="D136:D137"/>
+    <mergeCell ref="E44:E45"/>
+    <mergeCell ref="E42:E43"/>
+    <mergeCell ref="E46:E47"/>
+    <mergeCell ref="D106:D107"/>
+    <mergeCell ref="E48:E49"/>
     <mergeCell ref="E148:E149"/>
-    <mergeCell ref="D122:D123"/>
-    <mergeCell ref="I130:I131"/>
-    <mergeCell ref="H130:H131"/>
-    <mergeCell ref="I134:I135"/>
-    <mergeCell ref="H132:H133"/>
-    <mergeCell ref="I132:I133"/>
-    <mergeCell ref="H14:H15"/>
-    <mergeCell ref="H16:H17"/>
-    <mergeCell ref="H18:H19"/>
-    <mergeCell ref="H70:H71"/>
-    <mergeCell ref="D26:D27"/>
-    <mergeCell ref="D60:D61"/>
-    <mergeCell ref="D58:D59"/>
-    <mergeCell ref="E60:E61"/>
-    <mergeCell ref="A130:A131"/>
-    <mergeCell ref="E130:E131"/>
-    <mergeCell ref="E116:E117"/>
-    <mergeCell ref="E118:E119"/>
-    <mergeCell ref="D116:D117"/>
-    <mergeCell ref="D118:D119"/>
-    <mergeCell ref="D120:D121"/>
-    <mergeCell ref="A112:A113"/>
-    <mergeCell ref="A94:A95"/>
-    <mergeCell ref="E94:E95"/>
-    <mergeCell ref="A124:A125"/>
-    <mergeCell ref="A126:A127"/>
-    <mergeCell ref="E106:E107"/>
-    <mergeCell ref="A98:A99"/>
-    <mergeCell ref="A110:A111"/>
-    <mergeCell ref="A108:A109"/>
-    <mergeCell ref="A146:A147"/>
-    <mergeCell ref="A148:A149"/>
-    <mergeCell ref="A144:A145"/>
-    <mergeCell ref="A62:A63"/>
-    <mergeCell ref="A60:A61"/>
-    <mergeCell ref="A48:A49"/>
-    <mergeCell ref="A50:A51"/>
-    <mergeCell ref="B40:C75"/>
-    <mergeCell ref="B76:C109"/>
-    <mergeCell ref="A90:A91"/>
-    <mergeCell ref="A92:A93"/>
-    <mergeCell ref="A132:A133"/>
-    <mergeCell ref="A72:A73"/>
-    <mergeCell ref="A54:A55"/>
-    <mergeCell ref="A52:A53"/>
-    <mergeCell ref="A58:A59"/>
-    <mergeCell ref="A76:A77"/>
-    <mergeCell ref="A40:A41"/>
-    <mergeCell ref="H28:H29"/>
-    <mergeCell ref="H32:H33"/>
-    <mergeCell ref="I10:I11"/>
-    <mergeCell ref="I12:I13"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="H12:H13"/>
-    <mergeCell ref="A134:A135"/>
-    <mergeCell ref="A138:A139"/>
-    <mergeCell ref="A136:A137"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="H10:H11"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="H114:H115"/>
-    <mergeCell ref="H110:H111"/>
-    <mergeCell ref="H112:H113"/>
-    <mergeCell ref="H98:H99"/>
-    <mergeCell ref="H100:H101"/>
-    <mergeCell ref="H84:H85"/>
-    <mergeCell ref="H86:H87"/>
-    <mergeCell ref="H94:H95"/>
-    <mergeCell ref="H96:H97"/>
-    <mergeCell ref="H102:H103"/>
-    <mergeCell ref="H22:H23"/>
-    <mergeCell ref="H20:H21"/>
-    <mergeCell ref="I70:I71"/>
-    <mergeCell ref="I22:I23"/>
-    <mergeCell ref="I18:I19"/>
-    <mergeCell ref="I16:I17"/>
-    <mergeCell ref="I14:I15"/>
-    <mergeCell ref="I20:I21"/>
-    <mergeCell ref="H68:H69"/>
-    <mergeCell ref="H66:H67"/>
-    <mergeCell ref="I122:I123"/>
-    <mergeCell ref="I120:I121"/>
-    <mergeCell ref="H116:H117"/>
-    <mergeCell ref="I116:I117"/>
-    <mergeCell ref="H120:H121"/>
-    <mergeCell ref="H72:H73"/>
-    <mergeCell ref="I28:I29"/>
-    <mergeCell ref="I34:I35"/>
-    <mergeCell ref="I30:I31"/>
-    <mergeCell ref="I32:I33"/>
-    <mergeCell ref="I24:I25"/>
-    <mergeCell ref="I36:I37"/>
-    <mergeCell ref="H26:H27"/>
-    <mergeCell ref="H24:H25"/>
-    <mergeCell ref="H30:H31"/>
-    <mergeCell ref="I26:I27"/>
-    <mergeCell ref="D70:D71"/>
-    <mergeCell ref="D64:D65"/>
-    <mergeCell ref="E86:E87"/>
-    <mergeCell ref="D62:D63"/>
-    <mergeCell ref="E32:E33"/>
-    <mergeCell ref="D32:D33"/>
-    <mergeCell ref="D40:D41"/>
-    <mergeCell ref="D44:D45"/>
-    <mergeCell ref="D42:D43"/>
-    <mergeCell ref="E50:E51"/>
-    <mergeCell ref="D50:D51"/>
-    <mergeCell ref="D48:D49"/>
-    <mergeCell ref="D46:D47"/>
-    <mergeCell ref="D56:D57"/>
-    <mergeCell ref="D54:D55"/>
-    <mergeCell ref="E52:E53"/>
-    <mergeCell ref="E146:E147"/>
-    <mergeCell ref="E144:E145"/>
-    <mergeCell ref="H104:H105"/>
-    <mergeCell ref="H106:H107"/>
-    <mergeCell ref="J6:M6"/>
-    <mergeCell ref="A42:A43"/>
-    <mergeCell ref="A38:A39"/>
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="A34:A35"/>
-    <mergeCell ref="D36:D37"/>
-    <mergeCell ref="E36:E37"/>
-    <mergeCell ref="I38:I39"/>
-    <mergeCell ref="H38:H39"/>
-    <mergeCell ref="A44:A45"/>
-    <mergeCell ref="E38:E39"/>
-    <mergeCell ref="D38:D39"/>
-    <mergeCell ref="I40:I41"/>
-    <mergeCell ref="I42:I43"/>
-    <mergeCell ref="E34:E35"/>
-    <mergeCell ref="D34:D35"/>
+    <mergeCell ref="E100:E101"/>
+    <mergeCell ref="E108:E109"/>
+    <mergeCell ref="E110:E111"/>
+    <mergeCell ref="E114:E115"/>
+    <mergeCell ref="D96:D97"/>
+    <mergeCell ref="D94:D95"/>
+    <mergeCell ref="D52:D53"/>
+    <mergeCell ref="D102:D103"/>
+    <mergeCell ref="D104:D105"/>
+    <mergeCell ref="D110:D111"/>
+    <mergeCell ref="E58:E59"/>
+    <mergeCell ref="E92:E93"/>
+    <mergeCell ref="E88:E89"/>
+    <mergeCell ref="E90:E91"/>
+    <mergeCell ref="E70:E71"/>
+    <mergeCell ref="E74:E75"/>
+    <mergeCell ref="E72:E73"/>
     <mergeCell ref="D66:D67"/>
     <mergeCell ref="D68:D69"/>
     <mergeCell ref="E68:E69"/>
     <mergeCell ref="D92:D93"/>
+    <mergeCell ref="D138:D139"/>
+    <mergeCell ref="D140:D141"/>
+    <mergeCell ref="E120:E121"/>
+    <mergeCell ref="E122:E123"/>
+    <mergeCell ref="D108:D109"/>
+    <mergeCell ref="E112:E113"/>
+    <mergeCell ref="D148:D149"/>
+    <mergeCell ref="D146:D147"/>
+    <mergeCell ref="E142:E143"/>
+    <mergeCell ref="E124:E125"/>
+    <mergeCell ref="E126:E127"/>
+    <mergeCell ref="D126:D127"/>
+    <mergeCell ref="D124:D125"/>
+    <mergeCell ref="D144:D145"/>
+    <mergeCell ref="E146:E147"/>
+    <mergeCell ref="E144:E145"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -46210,7 +46419,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
@@ -46228,7 +46439,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="31" t="s">
-        <v>2</v>
+        <v>41</v>
       </c>
       <c r="D1" s="33" t="s">
         <v>3</v>
